--- a/indirizzi_geocodificati.xlsx
+++ b/indirizzi_geocodificati.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\ama-nas01\14\AREA-OVEST-PM\Contenitori\Cassonetti\Riprorammazione giri 2 assi 2026\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30F9EF11-0EE3-422E-A93F-05CA3087C175}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9828FF37-636E-400D-BA13-8EA439D0546F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-29895" yWindow="2760" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="19410" windowHeight="20985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -3990,11 +3990,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:H961"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4035,7 +4034,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>669</v>
       </c>
@@ -4061,7 +4060,7 @@
         <v>12.436747499999999</v>
       </c>
     </row>
-    <row r="3" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>670</v>
       </c>
@@ -4087,7 +4086,7 @@
         <v>12.419254</v>
       </c>
     </row>
-    <row r="4" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>670</v>
       </c>
@@ -4113,7 +4112,7 @@
         <v>12.419254</v>
       </c>
     </row>
-    <row r="5" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>671</v>
       </c>
@@ -4139,7 +4138,7 @@
         <v>12.465145700000001</v>
       </c>
     </row>
-    <row r="6" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>672</v>
       </c>
@@ -4165,7 +4164,7 @@
         <v>12.4679225</v>
       </c>
     </row>
-    <row r="7" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>673</v>
       </c>
@@ -4191,7 +4190,7 @@
         <v>12.472239800000001</v>
       </c>
     </row>
-    <row r="8" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>674</v>
       </c>
@@ -4217,7 +4216,7 @@
         <v>12.4733328</v>
       </c>
     </row>
-    <row r="9" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>675</v>
       </c>
@@ -4243,7 +4242,7 @@
         <v>12.4720189</v>
       </c>
     </row>
-    <row r="10" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>676</v>
       </c>
@@ -4269,7 +4268,7 @@
         <v>12.4715598</v>
       </c>
     </row>
-    <row r="11" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>677</v>
       </c>
@@ -4295,7 +4294,7 @@
         <v>12.4665342</v>
       </c>
     </row>
-    <row r="12" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>678</v>
       </c>
@@ -4321,7 +4320,7 @@
         <v>12.4655162</v>
       </c>
     </row>
-    <row r="13" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>679</v>
       </c>
@@ -4347,7 +4346,7 @@
         <v>12.4655162</v>
       </c>
     </row>
-    <row r="14" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>680</v>
       </c>
@@ -4399,7 +4398,7 @@
         <v>12.4687611</v>
       </c>
     </row>
-    <row r="16" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>682</v>
       </c>
@@ -4425,7 +4424,7 @@
         <v>12.4672248</v>
       </c>
     </row>
-    <row r="17" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>683</v>
       </c>
@@ -4451,7 +4450,7 @@
         <v>12.467258899999999</v>
       </c>
     </row>
-    <row r="18" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>684</v>
       </c>
@@ -4477,7 +4476,7 @@
         <v>12.467258899999999</v>
       </c>
     </row>
-    <row r="19" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>685</v>
       </c>
@@ -4503,7 +4502,7 @@
         <v>12.467258899999999</v>
       </c>
     </row>
-    <row r="20" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>686</v>
       </c>
@@ -4523,13 +4522,13 @@
         <v>11</v>
       </c>
       <c r="G20">
-        <v>41.859758599999999</v>
+        <v>41.85324</v>
       </c>
       <c r="H20">
-        <v>12.419367100000001</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+        <v>12.421060000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>686</v>
       </c>
@@ -4549,13 +4548,13 @@
         <v>11</v>
       </c>
       <c r="G21">
-        <v>41.859758599999999</v>
+        <v>41.85324</v>
       </c>
       <c r="H21">
-        <v>12.419367100000001</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+        <v>12.421060000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>687</v>
       </c>
@@ -4581,7 +4580,7 @@
         <v>12.422466399999999</v>
       </c>
     </row>
-    <row r="23" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>688</v>
       </c>
@@ -4607,7 +4606,7 @@
         <v>12.4653882</v>
       </c>
     </row>
-    <row r="24" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>689</v>
       </c>
@@ -4633,7 +4632,7 @@
         <v>12.4548323</v>
       </c>
     </row>
-    <row r="25" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>690</v>
       </c>
@@ -4659,7 +4658,7 @@
         <v>12.460785599999999</v>
       </c>
     </row>
-    <row r="26" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>691</v>
       </c>
@@ -4685,7 +4684,7 @@
         <v>12.4548323</v>
       </c>
     </row>
-    <row r="27" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>692</v>
       </c>
@@ -4711,7 +4710,7 @@
         <v>12.457281200000001</v>
       </c>
     </row>
-    <row r="28" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>693</v>
       </c>
@@ -4737,7 +4736,7 @@
         <v>12.452281899999999</v>
       </c>
     </row>
-    <row r="29" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>694</v>
       </c>
@@ -4763,7 +4762,7 @@
         <v>12.4572786</v>
       </c>
     </row>
-    <row r="30" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>695</v>
       </c>
@@ -4789,7 +4788,7 @@
         <v>12.452281899999999</v>
       </c>
     </row>
-    <row r="31" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>696</v>
       </c>
@@ -4815,7 +4814,7 @@
         <v>12.464003699999999</v>
       </c>
     </row>
-    <row r="32" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>697</v>
       </c>
@@ -4841,7 +4840,7 @@
         <v>12.4615081</v>
       </c>
     </row>
-    <row r="33" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>697</v>
       </c>
@@ -4867,7 +4866,7 @@
         <v>12.4615081</v>
       </c>
     </row>
-    <row r="34" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>698</v>
       </c>
@@ -4893,7 +4892,7 @@
         <v>12.4532439</v>
       </c>
     </row>
-    <row r="35" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>699</v>
       </c>
@@ -4919,7 +4918,7 @@
         <v>12.4627888</v>
       </c>
     </row>
-    <row r="36" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>700</v>
       </c>
@@ -4945,7 +4944,7 @@
         <v>12.4653882</v>
       </c>
     </row>
-    <row r="37" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>701</v>
       </c>
@@ -4971,7 +4970,7 @@
         <v>12.451320600000001</v>
       </c>
     </row>
-    <row r="38" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>702</v>
       </c>
@@ -4997,7 +4996,7 @@
         <v>12.453292599999999</v>
       </c>
     </row>
-    <row r="39" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>703</v>
       </c>
@@ -5023,7 +5022,7 @@
         <v>12.4676934</v>
       </c>
     </row>
-    <row r="40" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>704</v>
       </c>
@@ -5049,7 +5048,7 @@
         <v>12.4485481</v>
       </c>
     </row>
-    <row r="41" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
         <v>705</v>
       </c>
@@ -5075,7 +5074,7 @@
         <v>12.450667899999999</v>
       </c>
     </row>
-    <row r="42" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
         <v>706</v>
       </c>
@@ -5101,7 +5100,7 @@
         <v>12.461672800000001</v>
       </c>
     </row>
-    <row r="43" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
         <v>707</v>
       </c>
@@ -5127,7 +5126,7 @@
         <v>12.450822499999999</v>
       </c>
     </row>
-    <row r="44" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
         <v>708</v>
       </c>
@@ -5153,7 +5152,7 @@
         <v>12.452703</v>
       </c>
     </row>
-    <row r="45" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
         <v>696</v>
       </c>
@@ -5179,7 +5178,7 @@
         <v>12.464003699999999</v>
       </c>
     </row>
-    <row r="46" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
         <v>709</v>
       </c>
@@ -5205,7 +5204,7 @@
         <v>12.4485481</v>
       </c>
     </row>
-    <row r="47" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
         <v>710</v>
       </c>
@@ -5231,7 +5230,7 @@
         <v>12.4568061</v>
       </c>
     </row>
-    <row r="48" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
         <v>711</v>
       </c>
@@ -5257,7 +5256,7 @@
         <v>12.462700699999999</v>
       </c>
     </row>
-    <row r="49" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
         <v>712</v>
       </c>
@@ -5283,7 +5282,7 @@
         <v>12.4611974</v>
       </c>
     </row>
-    <row r="50" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
         <v>712</v>
       </c>
@@ -5309,7 +5308,7 @@
         <v>12.4611974</v>
       </c>
     </row>
-    <row r="51" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
         <v>713</v>
       </c>
@@ -5335,7 +5334,7 @@
         <v>12.4375415</v>
       </c>
     </row>
-    <row r="52" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
         <v>713</v>
       </c>
@@ -5361,7 +5360,7 @@
         <v>12.4375415</v>
       </c>
     </row>
-    <row r="53" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
         <v>714</v>
       </c>
@@ -5387,7 +5386,7 @@
         <v>12.394792799999999</v>
       </c>
     </row>
-    <row r="54" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
         <v>715</v>
       </c>
@@ -5413,7 +5412,7 @@
         <v>12.453292599999999</v>
       </c>
     </row>
-    <row r="55" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
         <v>716</v>
       </c>
@@ -5439,7 +5438,7 @@
         <v>12.421317</v>
       </c>
     </row>
-    <row r="56" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
         <v>717</v>
       </c>
@@ -5465,7 +5464,7 @@
         <v>12.4453563</v>
       </c>
     </row>
-    <row r="57" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
         <v>718</v>
       </c>
@@ -5491,7 +5490,7 @@
         <v>12.441648199999999</v>
       </c>
     </row>
-    <row r="58" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
         <v>719</v>
       </c>
@@ -5517,7 +5516,7 @@
         <v>12.4453563</v>
       </c>
     </row>
-    <row r="59" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
         <v>720</v>
       </c>
@@ -5543,7 +5542,7 @@
         <v>12.436747499999999</v>
       </c>
     </row>
-    <row r="60" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
         <v>721</v>
       </c>
@@ -5569,7 +5568,7 @@
         <v>12.4382193</v>
       </c>
     </row>
-    <row r="61" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
         <v>722</v>
       </c>
@@ -5595,7 +5594,7 @@
         <v>12.420400600000001</v>
       </c>
     </row>
-    <row r="62" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
         <v>723</v>
       </c>
@@ -5621,7 +5620,7 @@
         <v>12.4276889</v>
       </c>
     </row>
-    <row r="63" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
         <v>724</v>
       </c>
@@ -5647,7 +5646,7 @@
         <v>12.440671</v>
       </c>
     </row>
-    <row r="64" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
         <v>725</v>
       </c>
@@ -5673,7 +5672,7 @@
         <v>12.394792799999999</v>
       </c>
     </row>
-    <row r="65" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
         <v>713</v>
       </c>
@@ -5699,7 +5698,7 @@
         <v>12.4375415</v>
       </c>
     </row>
-    <row r="66" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
         <v>726</v>
       </c>
@@ -5725,7 +5724,7 @@
         <v>12.444683899999999</v>
       </c>
     </row>
-    <row r="67" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
         <v>669</v>
       </c>
@@ -5751,7 +5750,7 @@
         <v>12.436747499999999</v>
       </c>
     </row>
-    <row r="68" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
         <v>727</v>
       </c>
@@ -5777,7 +5776,7 @@
         <v>12.421317</v>
       </c>
     </row>
-    <row r="69" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
         <v>728</v>
       </c>
@@ -5803,7 +5802,7 @@
         <v>12.4281592</v>
       </c>
     </row>
-    <row r="70" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
         <v>729</v>
       </c>
@@ -5829,7 +5828,7 @@
         <v>12.4281592</v>
       </c>
     </row>
-    <row r="71" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
         <v>730</v>
       </c>
@@ -5855,7 +5854,7 @@
         <v>12.4281592</v>
       </c>
     </row>
-    <row r="72" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
         <v>731</v>
       </c>
@@ -5875,13 +5874,13 @@
         <v>11</v>
       </c>
       <c r="G72">
-        <v>41.859758599999999</v>
+        <v>41.857041700000003</v>
       </c>
       <c r="H72">
-        <v>12.419367100000001</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+        <v>12.419955699999999</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
         <v>731</v>
       </c>
@@ -5901,13 +5900,13 @@
         <v>11</v>
       </c>
       <c r="G73">
-        <v>41.859758599999999</v>
+        <v>41.857041700000003</v>
       </c>
       <c r="H73">
-        <v>12.419367100000001</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+        <v>12.419955699999999</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
         <v>732</v>
       </c>
@@ -5927,13 +5926,13 @@
         <v>11</v>
       </c>
       <c r="G74">
-        <v>41.859758599999999</v>
+        <v>41.855519999999999</v>
       </c>
       <c r="H74">
-        <v>12.419367100000001</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+        <v>12.42005</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
         <v>732</v>
       </c>
@@ -5953,13 +5952,13 @@
         <v>11</v>
       </c>
       <c r="G75">
-        <v>41.859758599999999</v>
+        <v>41.855519999999999</v>
       </c>
       <c r="H75">
-        <v>12.419367100000001</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+        <v>12.42005</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
         <v>733</v>
       </c>
@@ -5979,13 +5978,13 @@
         <v>11</v>
       </c>
       <c r="G76">
-        <v>41.859758599999999</v>
+        <v>41.856208299999999</v>
       </c>
       <c r="H76">
-        <v>12.419367100000001</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+        <v>12.4201169</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
         <v>733</v>
       </c>
@@ -6005,13 +6004,13 @@
         <v>11</v>
       </c>
       <c r="G77">
-        <v>41.859758599999999</v>
+        <v>41.856208299999999</v>
       </c>
       <c r="H77">
-        <v>12.419367100000001</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+        <v>12.4201169</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
         <v>734</v>
       </c>
@@ -6037,7 +6036,7 @@
         <v>12.4131214</v>
       </c>
     </row>
-    <row r="79" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
         <v>735</v>
       </c>
@@ -6063,7 +6062,7 @@
         <v>12.4131214</v>
       </c>
     </row>
-    <row r="80" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
         <v>736</v>
       </c>
@@ -6089,7 +6088,7 @@
         <v>12.4131214</v>
       </c>
     </row>
-    <row r="81" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
         <v>736</v>
       </c>
@@ -6115,7 +6114,7 @@
         <v>12.4131214</v>
       </c>
     </row>
-    <row r="82" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
         <v>734</v>
       </c>
@@ -6141,7 +6140,7 @@
         <v>12.4131214</v>
       </c>
     </row>
-    <row r="83" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
         <v>737</v>
       </c>
@@ -6167,7 +6166,7 @@
         <v>12.4139968</v>
       </c>
     </row>
-    <row r="84" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
         <v>738</v>
       </c>
@@ -6193,7 +6192,7 @@
         <v>12.4611266</v>
       </c>
     </row>
-    <row r="85" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
         <v>739</v>
       </c>
@@ -6219,7 +6218,7 @@
         <v>12.3935312</v>
       </c>
     </row>
-    <row r="86" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
         <v>739</v>
       </c>
@@ -6245,7 +6244,7 @@
         <v>12.3935312</v>
       </c>
     </row>
-    <row r="87" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
         <v>739</v>
       </c>
@@ -6271,7 +6270,7 @@
         <v>12.3935312</v>
       </c>
     </row>
-    <row r="88" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
         <v>740</v>
       </c>
@@ -6297,7 +6296,7 @@
         <v>12.470821000000001</v>
       </c>
     </row>
-    <row r="89" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
         <v>741</v>
       </c>
@@ -6323,7 +6322,7 @@
         <v>12.4634237</v>
       </c>
     </row>
-    <row r="90" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
         <v>742</v>
       </c>
@@ -6349,7 +6348,7 @@
         <v>12.4457421</v>
       </c>
     </row>
-    <row r="91" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
         <v>743</v>
       </c>
@@ -6375,7 +6374,7 @@
         <v>12.4542901</v>
       </c>
     </row>
-    <row r="92" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
         <v>744</v>
       </c>
@@ -6401,7 +6400,7 @@
         <v>12.450601900000001</v>
       </c>
     </row>
-    <row r="93" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
         <v>745</v>
       </c>
@@ -6427,7 +6426,7 @@
         <v>12.4672248</v>
       </c>
     </row>
-    <row r="94" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
         <v>745</v>
       </c>
@@ -6453,7 +6452,7 @@
         <v>12.4672248</v>
       </c>
     </row>
-    <row r="95" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
         <v>746</v>
       </c>
@@ -6479,7 +6478,7 @@
         <v>12.4733328</v>
       </c>
     </row>
-    <row r="96" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
         <v>747</v>
       </c>
@@ -6505,7 +6504,7 @@
         <v>12.4689797</v>
       </c>
     </row>
-    <row r="97" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
         <v>746</v>
       </c>
@@ -6531,7 +6530,7 @@
         <v>12.4733328</v>
       </c>
     </row>
-    <row r="98" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
         <v>748</v>
       </c>
@@ -6557,7 +6556,7 @@
         <v>12.4665342</v>
       </c>
     </row>
-    <row r="99" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
         <v>749</v>
       </c>
@@ -6583,7 +6582,7 @@
         <v>12.464426700000001</v>
       </c>
     </row>
-    <row r="100" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
         <v>750</v>
       </c>
@@ -6609,7 +6608,7 @@
         <v>12.463844</v>
       </c>
     </row>
-    <row r="101" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
         <v>751</v>
       </c>
@@ -6635,7 +6634,7 @@
         <v>12.472239800000001</v>
       </c>
     </row>
-    <row r="102" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
         <v>752</v>
       </c>
@@ -6661,7 +6660,7 @@
         <v>12.4655162</v>
       </c>
     </row>
-    <row r="103" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
         <v>753</v>
       </c>
@@ -6687,7 +6686,7 @@
         <v>12.4655162</v>
       </c>
     </row>
-    <row r="104" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
         <v>754</v>
       </c>
@@ -6713,7 +6712,7 @@
         <v>12.4655162</v>
       </c>
     </row>
-    <row r="105" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105" s="3" t="s">
         <v>755</v>
       </c>
@@ -6739,7 +6738,7 @@
         <v>12.4672968</v>
       </c>
     </row>
-    <row r="106" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="s">
         <v>756</v>
       </c>
@@ -6765,7 +6764,7 @@
         <v>12.471681</v>
       </c>
     </row>
-    <row r="107" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107" s="3" t="s">
         <v>757</v>
       </c>
@@ -6791,7 +6790,7 @@
         <v>12.4672968</v>
       </c>
     </row>
-    <row r="108" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108" s="3" t="s">
         <v>758</v>
       </c>
@@ -6817,7 +6816,7 @@
         <v>12.4679225</v>
       </c>
     </row>
-    <row r="109" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109" s="3" t="s">
         <v>759</v>
       </c>
@@ -6843,7 +6842,7 @@
         <v>12.464426700000001</v>
       </c>
     </row>
-    <row r="110" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110" s="3" t="s">
         <v>760</v>
       </c>
@@ -6869,7 +6868,7 @@
         <v>12.4679225</v>
       </c>
     </row>
-    <row r="111" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111" s="3" t="s">
         <v>684</v>
       </c>
@@ -6895,7 +6894,7 @@
         <v>12.467258899999999</v>
       </c>
     </row>
-    <row r="112" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112" s="3" t="s">
         <v>761</v>
       </c>
@@ -6921,7 +6920,7 @@
         <v>12.4672248</v>
       </c>
     </row>
-    <row r="113" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113" s="3" t="s">
         <v>762</v>
       </c>
@@ -6947,7 +6946,7 @@
         <v>12.4285136</v>
       </c>
     </row>
-    <row r="114" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114" s="3" t="s">
         <v>763</v>
       </c>
@@ -6973,7 +6972,7 @@
         <v>12.4653882</v>
       </c>
     </row>
-    <row r="115" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A115" s="3" t="s">
         <v>764</v>
       </c>
@@ -6999,7 +6998,7 @@
         <v>12.4290529</v>
       </c>
     </row>
-    <row r="116" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A116" s="3" t="s">
         <v>765</v>
       </c>
@@ -7025,7 +7024,7 @@
         <v>12.452554900000001</v>
       </c>
     </row>
-    <row r="117" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A117" s="3" t="s">
         <v>690</v>
       </c>
@@ -7051,7 +7050,7 @@
         <v>12.460785599999999</v>
       </c>
     </row>
-    <row r="118" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A118" s="3" t="s">
         <v>766</v>
       </c>
@@ -7077,7 +7076,7 @@
         <v>12.452281899999999</v>
       </c>
     </row>
-    <row r="119" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A119" s="3" t="s">
         <v>767</v>
       </c>
@@ -7103,7 +7102,7 @@
         <v>12.4548323</v>
       </c>
     </row>
-    <row r="120" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A120" s="3" t="s">
         <v>768</v>
       </c>
@@ -7129,7 +7128,7 @@
         <v>12.453670799999999</v>
       </c>
     </row>
-    <row r="121" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A121" s="3" t="s">
         <v>769</v>
       </c>
@@ -7155,7 +7154,7 @@
         <v>12.459636400000001</v>
       </c>
     </row>
-    <row r="122" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A122" s="3" t="s">
         <v>770</v>
       </c>
@@ -7181,7 +7180,7 @@
         <v>12.471613400000001</v>
       </c>
     </row>
-    <row r="123" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A123" s="3" t="s">
         <v>771</v>
       </c>
@@ -7207,7 +7206,7 @@
         <v>12.4627888</v>
       </c>
     </row>
-    <row r="124" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A124" s="3" t="s">
         <v>772</v>
       </c>
@@ -7233,7 +7232,7 @@
         <v>12.4541868</v>
       </c>
     </row>
-    <row r="125" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A125" s="3" t="s">
         <v>773</v>
       </c>
@@ -7259,7 +7258,7 @@
         <v>12.4627888</v>
       </c>
     </row>
-    <row r="126" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A126" s="3" t="s">
         <v>701</v>
       </c>
@@ -7285,7 +7284,7 @@
         <v>12.451320600000001</v>
       </c>
     </row>
-    <row r="127" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A127" s="3" t="s">
         <v>774</v>
       </c>
@@ -7311,7 +7310,7 @@
         <v>12.4653882</v>
       </c>
     </row>
-    <row r="128" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A128" s="3" t="s">
         <v>775</v>
       </c>
@@ -7337,7 +7336,7 @@
         <v>12.4653882</v>
       </c>
     </row>
-    <row r="129" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A129" s="3" t="s">
         <v>776</v>
       </c>
@@ -7363,7 +7362,7 @@
         <v>12.450469</v>
       </c>
     </row>
-    <row r="130" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A130" s="3" t="s">
         <v>777</v>
       </c>
@@ -7389,7 +7388,7 @@
         <v>12.450601900000001</v>
       </c>
     </row>
-    <row r="131" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A131" s="3" t="s">
         <v>778</v>
       </c>
@@ -7415,7 +7414,7 @@
         <v>12.4653882</v>
       </c>
     </row>
-    <row r="132" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A132" s="3" t="s">
         <v>779</v>
       </c>
@@ -7441,7 +7440,7 @@
         <v>12.4618869</v>
       </c>
     </row>
-    <row r="133" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A133" s="3" t="s">
         <v>780</v>
       </c>
@@ -7467,7 +7466,7 @@
         <v>12.452363</v>
       </c>
     </row>
-    <row r="134" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A134" s="3" t="s">
         <v>781</v>
       </c>
@@ -7493,7 +7492,7 @@
         <v>12.450822499999999</v>
       </c>
     </row>
-    <row r="135" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A135" s="3" t="s">
         <v>782</v>
       </c>
@@ -7519,7 +7518,7 @@
         <v>12.455799900000001</v>
       </c>
     </row>
-    <row r="136" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A136" s="3" t="s">
         <v>783</v>
       </c>
@@ -7545,7 +7544,7 @@
         <v>12.450822499999999</v>
       </c>
     </row>
-    <row r="137" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A137" s="3" t="s">
         <v>782</v>
       </c>
@@ -7571,7 +7570,7 @@
         <v>12.455799900000001</v>
       </c>
     </row>
-    <row r="138" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A138" s="3" t="s">
         <v>711</v>
       </c>
@@ -7597,7 +7596,7 @@
         <v>12.462700699999999</v>
       </c>
     </row>
-    <row r="139" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A139" s="3" t="s">
         <v>784</v>
       </c>
@@ -7623,7 +7622,7 @@
         <v>12.457798500000001</v>
       </c>
     </row>
-    <row r="140" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A140" s="3" t="s">
         <v>785</v>
       </c>
@@ -7649,7 +7648,7 @@
         <v>12.457798500000001</v>
       </c>
     </row>
-    <row r="141" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A141" s="3" t="s">
         <v>786</v>
       </c>
@@ -7675,7 +7674,7 @@
         <v>12.4638267</v>
       </c>
     </row>
-    <row r="142" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A142" s="3" t="s">
         <v>787</v>
       </c>
@@ -7701,7 +7700,7 @@
         <v>12.4638267</v>
       </c>
     </row>
-    <row r="143" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A143" s="3" t="s">
         <v>788</v>
       </c>
@@ -7727,7 +7726,7 @@
         <v>12.4611974</v>
       </c>
     </row>
-    <row r="144" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A144" s="3" t="s">
         <v>789</v>
       </c>
@@ -7753,7 +7752,7 @@
         <v>12.394792799999999</v>
       </c>
     </row>
-    <row r="145" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A145" s="3" t="s">
         <v>714</v>
       </c>
@@ -7779,7 +7778,7 @@
         <v>12.394792799999999</v>
       </c>
     </row>
-    <row r="146" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A146" s="3" t="s">
         <v>790</v>
       </c>
@@ -7805,7 +7804,7 @@
         <v>12.394792799999999</v>
       </c>
     </row>
-    <row r="147" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A147" s="3" t="s">
         <v>791</v>
       </c>
@@ -7831,7 +7830,7 @@
         <v>12.4381301</v>
       </c>
     </row>
-    <row r="148" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A148" s="3" t="s">
         <v>792</v>
       </c>
@@ -7857,7 +7856,7 @@
         <v>12.449606810000001</v>
       </c>
     </row>
-    <row r="149" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A149" s="3" t="s">
         <v>727</v>
       </c>
@@ -7883,7 +7882,7 @@
         <v>12.421317</v>
       </c>
     </row>
-    <row r="150" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A150" s="3" t="s">
         <v>727</v>
       </c>
@@ -7909,7 +7908,7 @@
         <v>12.421317</v>
       </c>
     </row>
-    <row r="151" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A151" s="3" t="s">
         <v>793</v>
       </c>
@@ -7935,7 +7934,7 @@
         <v>12.436747499999999</v>
       </c>
     </row>
-    <row r="152" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A152" s="3" t="s">
         <v>794</v>
       </c>
@@ -7961,7 +7960,7 @@
         <v>12.4460753</v>
       </c>
     </row>
-    <row r="153" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A153" s="3" t="s">
         <v>723</v>
       </c>
@@ -7987,7 +7986,7 @@
         <v>12.4276889</v>
       </c>
     </row>
-    <row r="154" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A154" s="3" t="s">
         <v>795</v>
       </c>
@@ -8013,7 +8012,7 @@
         <v>12.420400600000001</v>
       </c>
     </row>
-    <row r="155" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A155" s="3" t="s">
         <v>796</v>
       </c>
@@ -8039,7 +8038,7 @@
         <v>12.441648199999999</v>
       </c>
     </row>
-    <row r="156" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A156" s="3" t="s">
         <v>797</v>
       </c>
@@ -8065,7 +8064,7 @@
         <v>12.441648199999999</v>
       </c>
     </row>
-    <row r="157" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A157" s="3" t="s">
         <v>796</v>
       </c>
@@ -8091,7 +8090,7 @@
         <v>12.441648199999999</v>
       </c>
     </row>
-    <row r="158" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A158" s="3" t="s">
         <v>798</v>
       </c>
@@ -8117,7 +8116,7 @@
         <v>12.394792799999999</v>
       </c>
     </row>
-    <row r="159" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A159" s="3" t="s">
         <v>799</v>
       </c>
@@ -8143,7 +8142,7 @@
         <v>12.4453563</v>
       </c>
     </row>
-    <row r="160" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A160" s="3" t="s">
         <v>800</v>
       </c>
@@ -8169,7 +8168,7 @@
         <v>12.444683899999999</v>
       </c>
     </row>
-    <row r="161" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A161" s="3" t="s">
         <v>801</v>
       </c>
@@ -8195,7 +8194,7 @@
         <v>12.436747499999999</v>
       </c>
     </row>
-    <row r="162" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A162" s="3" t="s">
         <v>726</v>
       </c>
@@ -8221,7 +8220,7 @@
         <v>12.444683899999999</v>
       </c>
     </row>
-    <row r="163" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A163" s="3" t="s">
         <v>802</v>
       </c>
@@ -8247,7 +8246,7 @@
         <v>12.4653882</v>
       </c>
     </row>
-    <row r="164" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A164" s="3" t="s">
         <v>686</v>
       </c>
@@ -8267,13 +8266,13 @@
         <v>11</v>
       </c>
       <c r="G164">
-        <v>41.859758599999999</v>
+        <v>41.85324</v>
       </c>
       <c r="H164">
-        <v>12.419367100000001</v>
-      </c>
-    </row>
-    <row r="165" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+        <v>12.421060000000001</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A165" s="3" t="s">
         <v>686</v>
       </c>
@@ -8293,13 +8292,13 @@
         <v>11</v>
       </c>
       <c r="G165">
-        <v>41.859758599999999</v>
+        <v>41.85324</v>
       </c>
       <c r="H165">
-        <v>12.419367100000001</v>
-      </c>
-    </row>
-    <row r="166" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+        <v>12.421060000000001</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A166" s="3" t="s">
         <v>803</v>
       </c>
@@ -8325,7 +8324,7 @@
         <v>12.4178953</v>
       </c>
     </row>
-    <row r="167" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A167" s="3" t="s">
         <v>804</v>
       </c>
@@ -8345,13 +8344,13 @@
         <v>11</v>
       </c>
       <c r="G167">
-        <v>41.859758599999999</v>
+        <v>41.8561707</v>
       </c>
       <c r="H167">
-        <v>12.419367100000001</v>
-      </c>
-    </row>
-    <row r="168" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+        <v>12.419950699999999</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A168" s="3" t="s">
         <v>804</v>
       </c>
@@ -8371,13 +8370,13 @@
         <v>11</v>
       </c>
       <c r="G168">
-        <v>41.859758599999999</v>
+        <v>41.8561707</v>
       </c>
       <c r="H168">
-        <v>12.419367100000001</v>
-      </c>
-    </row>
-    <row r="169" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+        <v>12.419950699999999</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A169" s="3" t="s">
         <v>805</v>
       </c>
@@ -8397,13 +8396,13 @@
         <v>11</v>
       </c>
       <c r="G169">
-        <v>41.859758599999999</v>
+        <v>41.853423573254581</v>
       </c>
       <c r="H169">
-        <v>12.419367100000001</v>
-      </c>
-    </row>
-    <row r="170" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+        <v>12.42088138420722</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A170" s="3" t="s">
         <v>805</v>
       </c>
@@ -8423,13 +8422,13 @@
         <v>11</v>
       </c>
       <c r="G170">
-        <v>41.859758599999999</v>
+        <v>41.853423573254581</v>
       </c>
       <c r="H170">
-        <v>12.419367100000001</v>
-      </c>
-    </row>
-    <row r="171" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+        <v>12.42088138420722</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A171" s="3" t="s">
         <v>806</v>
       </c>
@@ -8455,7 +8454,7 @@
         <v>12.4178953</v>
       </c>
     </row>
-    <row r="172" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A172" s="3" t="s">
         <v>807</v>
       </c>
@@ -8481,7 +8480,7 @@
         <v>12.4143522</v>
       </c>
     </row>
-    <row r="173" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A173" s="3" t="s">
         <v>807</v>
       </c>
@@ -8507,7 +8506,7 @@
         <v>12.4143522</v>
       </c>
     </row>
-    <row r="174" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A174" s="3" t="s">
         <v>735</v>
       </c>
@@ -8533,7 +8532,7 @@
         <v>12.4131214</v>
       </c>
     </row>
-    <row r="175" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A175" s="3" t="s">
         <v>736</v>
       </c>
@@ -8559,7 +8558,7 @@
         <v>12.4131214</v>
       </c>
     </row>
-    <row r="176" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A176" s="3" t="s">
         <v>736</v>
       </c>
@@ -8585,7 +8584,7 @@
         <v>12.4131214</v>
       </c>
     </row>
-    <row r="177" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A177" s="3" t="s">
         <v>739</v>
       </c>
@@ -8611,7 +8610,7 @@
         <v>12.3935312</v>
       </c>
     </row>
-    <row r="178" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A178" s="3" t="s">
         <v>739</v>
       </c>
@@ -8637,7 +8636,7 @@
         <v>12.3935312</v>
       </c>
     </row>
-    <row r="179" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A179" s="3" t="s">
         <v>808</v>
       </c>
@@ -8663,7 +8662,7 @@
         <v>12.471681</v>
       </c>
     </row>
-    <row r="180" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A180" s="3" t="s">
         <v>809</v>
       </c>
@@ -8689,7 +8688,7 @@
         <v>12.394792799999999</v>
       </c>
     </row>
-    <row r="181" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A181" s="3" t="s">
         <v>810</v>
       </c>
@@ -8715,7 +8714,7 @@
         <v>12.4457421</v>
       </c>
     </row>
-    <row r="182" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A182" s="3" t="s">
         <v>810</v>
       </c>
@@ -8741,7 +8740,7 @@
         <v>12.4457421</v>
       </c>
     </row>
-    <row r="183" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A183" s="3" t="s">
         <v>710</v>
       </c>
@@ -8767,7 +8766,7 @@
         <v>12.4568061</v>
       </c>
     </row>
-    <row r="184" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A184" s="3" t="s">
         <v>811</v>
       </c>
@@ -8793,7 +8792,7 @@
         <v>12.4193654</v>
       </c>
     </row>
-    <row r="185" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A185" s="3" t="s">
         <v>812</v>
       </c>
@@ -8819,7 +8818,7 @@
         <v>12.4618869</v>
       </c>
     </row>
-    <row r="186" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A186" s="3" t="s">
         <v>812</v>
       </c>
@@ -8845,7 +8844,7 @@
         <v>12.4618869</v>
       </c>
     </row>
-    <row r="187" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A187" s="3" t="s">
         <v>813</v>
       </c>
@@ -8871,7 +8870,7 @@
         <v>12.436747499999999</v>
       </c>
     </row>
-    <row r="188" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A188" s="3" t="s">
         <v>813</v>
       </c>
@@ -8897,7 +8896,7 @@
         <v>12.436747499999999</v>
       </c>
     </row>
-    <row r="189" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A189" s="3" t="s">
         <v>814</v>
       </c>
@@ -8949,7 +8948,7 @@
         <v>12.4692645</v>
       </c>
     </row>
-    <row r="191" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A191" s="3" t="s">
         <v>816</v>
       </c>
@@ -8975,7 +8974,7 @@
         <v>12.470659299999999</v>
       </c>
     </row>
-    <row r="192" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A192" s="3" t="s">
         <v>817</v>
       </c>
@@ -9001,7 +9000,7 @@
         <v>12.4750234</v>
       </c>
     </row>
-    <row r="193" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A193" s="3" t="s">
         <v>674</v>
       </c>
@@ -9027,7 +9026,7 @@
         <v>12.4733328</v>
       </c>
     </row>
-    <row r="194" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A194" s="3" t="s">
         <v>818</v>
       </c>
@@ -9053,7 +9052,7 @@
         <v>12.4750234</v>
       </c>
     </row>
-    <row r="195" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A195" s="3" t="s">
         <v>819</v>
       </c>
@@ -9079,7 +9078,7 @@
         <v>12.465145700000001</v>
       </c>
     </row>
-    <row r="196" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A196" s="3" t="s">
         <v>820</v>
       </c>
@@ -9105,7 +9104,7 @@
         <v>12.467973499999999</v>
       </c>
     </row>
-    <row r="197" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A197" s="3" t="s">
         <v>821</v>
       </c>
@@ -9131,7 +9130,7 @@
         <v>12.472239800000001</v>
       </c>
     </row>
-    <row r="198" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A198" s="3" t="s">
         <v>822</v>
       </c>
@@ -9157,7 +9156,7 @@
         <v>12.472239800000001</v>
       </c>
     </row>
-    <row r="199" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A199" s="3" t="s">
         <v>823</v>
       </c>
@@ -9183,7 +9182,7 @@
         <v>12.464426700000001</v>
       </c>
     </row>
-    <row r="200" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A200" s="3" t="s">
         <v>824</v>
       </c>
@@ -9209,7 +9208,7 @@
         <v>12.472239800000001</v>
       </c>
     </row>
-    <row r="201" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A201" s="3" t="s">
         <v>825</v>
       </c>
@@ -9235,7 +9234,7 @@
         <v>12.4672968</v>
       </c>
     </row>
-    <row r="202" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A202" s="3" t="s">
         <v>826</v>
       </c>
@@ -9261,7 +9260,7 @@
         <v>12.4655162</v>
       </c>
     </row>
-    <row r="203" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A203" s="3" t="s">
         <v>827</v>
       </c>
@@ -9287,7 +9286,7 @@
         <v>12.472239800000001</v>
       </c>
     </row>
-    <row r="204" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A204" s="3" t="s">
         <v>823</v>
       </c>
@@ -9313,7 +9312,7 @@
         <v>12.464426700000001</v>
       </c>
     </row>
-    <row r="205" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A205" s="3" t="s">
         <v>828</v>
       </c>
@@ -9339,7 +9338,7 @@
         <v>12.464426700000001</v>
       </c>
     </row>
-    <row r="206" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A206" s="3" t="s">
         <v>829</v>
       </c>
@@ -9365,7 +9364,7 @@
         <v>12.464426700000001</v>
       </c>
     </row>
-    <row r="207" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A207" s="3" t="s">
         <v>830</v>
       </c>
@@ -9391,7 +9390,7 @@
         <v>12.4653882</v>
       </c>
     </row>
-    <row r="208" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A208" s="3" t="s">
         <v>831</v>
       </c>
@@ -9417,7 +9416,7 @@
         <v>12.434444600000001</v>
       </c>
     </row>
-    <row r="209" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A209" s="3" t="s">
         <v>832</v>
       </c>
@@ -9437,13 +9436,13 @@
         <v>11</v>
       </c>
       <c r="G209">
-        <v>41.859758599999999</v>
+        <v>41.8586685</v>
       </c>
       <c r="H209">
-        <v>12.419367100000001</v>
-      </c>
-    </row>
-    <row r="210" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+        <v>12.419408499999999</v>
+      </c>
+    </row>
+    <row r="210" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A210" s="3" t="s">
         <v>832</v>
       </c>
@@ -9463,13 +9462,13 @@
         <v>11</v>
       </c>
       <c r="G210">
-        <v>41.859758599999999</v>
+        <v>41.8586685</v>
       </c>
       <c r="H210">
-        <v>12.419367100000001</v>
-      </c>
-    </row>
-    <row r="211" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+        <v>12.419408499999999</v>
+      </c>
+    </row>
+    <row r="211" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A211" s="3" t="s">
         <v>833</v>
       </c>
@@ -9489,13 +9488,13 @@
         <v>11</v>
       </c>
       <c r="G211">
-        <v>41.859758599999999</v>
+        <v>41.861347899999998</v>
       </c>
       <c r="H211">
-        <v>12.419367100000001</v>
-      </c>
-    </row>
-    <row r="212" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+        <v>12.419210519261711</v>
+      </c>
+    </row>
+    <row r="212" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A212" s="3" t="s">
         <v>833</v>
       </c>
@@ -9515,13 +9514,13 @@
         <v>11</v>
       </c>
       <c r="G212">
-        <v>41.859758599999999</v>
+        <v>41.861347899999998</v>
       </c>
       <c r="H212">
-        <v>12.419367100000001</v>
-      </c>
-    </row>
-    <row r="213" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+        <v>12.419210519261711</v>
+      </c>
+    </row>
+    <row r="213" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A213" s="3" t="s">
         <v>834</v>
       </c>
@@ -9547,7 +9546,7 @@
         <v>12.4598213</v>
       </c>
     </row>
-    <row r="214" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A214" s="3" t="s">
         <v>835</v>
       </c>
@@ -9573,7 +9572,7 @@
         <v>12.4591963</v>
       </c>
     </row>
-    <row r="215" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A215" s="3" t="s">
         <v>836</v>
       </c>
@@ -9599,7 +9598,7 @@
         <v>12.4579895</v>
       </c>
     </row>
-    <row r="216" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A216" s="3" t="s">
         <v>837</v>
       </c>
@@ -9625,7 +9624,7 @@
         <v>12.458538300000001</v>
       </c>
     </row>
-    <row r="217" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A217" s="3" t="s">
         <v>838</v>
       </c>
@@ -9651,7 +9650,7 @@
         <v>12.458665</v>
       </c>
     </row>
-    <row r="218" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A218" s="3" t="s">
         <v>839</v>
       </c>
@@ -9677,7 +9676,7 @@
         <v>12.460785599999999</v>
       </c>
     </row>
-    <row r="219" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A219" s="3" t="s">
         <v>766</v>
       </c>
@@ -9703,7 +9702,7 @@
         <v>12.452281899999999</v>
       </c>
     </row>
-    <row r="220" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A220" s="3" t="s">
         <v>840</v>
       </c>
@@ -9729,7 +9728,7 @@
         <v>12.459636400000001</v>
       </c>
     </row>
-    <row r="221" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A221" s="3" t="s">
         <v>841</v>
       </c>
@@ -9755,7 +9754,7 @@
         <v>12.455799900000001</v>
       </c>
     </row>
-    <row r="222" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A222" s="3" t="s">
         <v>698</v>
       </c>
@@ -9781,7 +9780,7 @@
         <v>12.4532439</v>
       </c>
     </row>
-    <row r="223" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A223" s="3" t="s">
         <v>699</v>
       </c>
@@ -9807,7 +9806,7 @@
         <v>12.4627888</v>
       </c>
     </row>
-    <row r="224" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A224" s="3" t="s">
         <v>842</v>
       </c>
@@ -9833,7 +9832,7 @@
         <v>12.458343599999999</v>
       </c>
     </row>
-    <row r="225" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A225" s="3" t="s">
         <v>772</v>
       </c>
@@ -9859,7 +9858,7 @@
         <v>12.4541868</v>
       </c>
     </row>
-    <row r="226" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A226" s="3" t="s">
         <v>772</v>
       </c>
@@ -9885,7 +9884,7 @@
         <v>12.4541868</v>
       </c>
     </row>
-    <row r="227" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A227" s="3" t="s">
         <v>843</v>
       </c>
@@ -9911,7 +9910,7 @@
         <v>12.4653882</v>
       </c>
     </row>
-    <row r="228" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A228" s="3" t="s">
         <v>844</v>
       </c>
@@ -9937,7 +9936,7 @@
         <v>12.4303554</v>
       </c>
     </row>
-    <row r="229" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A229" s="3" t="s">
         <v>845</v>
       </c>
@@ -9963,7 +9962,7 @@
         <v>12.451320600000001</v>
       </c>
     </row>
-    <row r="230" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A230" s="3" t="s">
         <v>775</v>
       </c>
@@ -9989,7 +9988,7 @@
         <v>12.4653882</v>
       </c>
     </row>
-    <row r="231" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A231" s="3" t="s">
         <v>777</v>
       </c>
@@ -10015,7 +10014,7 @@
         <v>12.450601900000001</v>
       </c>
     </row>
-    <row r="232" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A232" s="3" t="s">
         <v>846</v>
       </c>
@@ -10041,7 +10040,7 @@
         <v>12.4541868</v>
       </c>
     </row>
-    <row r="233" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A233" s="3" t="s">
         <v>847</v>
       </c>
@@ -10067,7 +10066,7 @@
         <v>12.4541868</v>
       </c>
     </row>
-    <row r="234" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A234" s="3" t="s">
         <v>848</v>
       </c>
@@ -10093,7 +10092,7 @@
         <v>12.4541868</v>
       </c>
     </row>
-    <row r="235" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A235" s="3" t="s">
         <v>778</v>
       </c>
@@ -10119,7 +10118,7 @@
         <v>12.4653882</v>
       </c>
     </row>
-    <row r="236" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A236" s="3" t="s">
         <v>849</v>
       </c>
@@ -10145,7 +10144,7 @@
         <v>12.450667899999999</v>
       </c>
     </row>
-    <row r="237" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A237" s="3" t="s">
         <v>705</v>
       </c>
@@ -10171,7 +10170,7 @@
         <v>12.450667899999999</v>
       </c>
     </row>
-    <row r="238" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A238" s="3" t="s">
         <v>850</v>
       </c>
@@ -10197,7 +10196,7 @@
         <v>12.452363</v>
       </c>
     </row>
-    <row r="239" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A239" s="3" t="s">
         <v>851</v>
       </c>
@@ -10223,7 +10222,7 @@
         <v>12.436747499999999</v>
       </c>
     </row>
-    <row r="240" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A240" s="3" t="s">
         <v>852</v>
       </c>
@@ -10249,7 +10248,7 @@
         <v>12.452703</v>
       </c>
     </row>
-    <row r="241" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A241" s="3" t="s">
         <v>852</v>
       </c>
@@ -10275,7 +10274,7 @@
         <v>12.452703</v>
       </c>
     </row>
-    <row r="242" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A242" s="3" t="s">
         <v>784</v>
       </c>
@@ -10301,7 +10300,7 @@
         <v>12.457798500000001</v>
       </c>
     </row>
-    <row r="243" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A243" s="3" t="s">
         <v>792</v>
       </c>
@@ -10327,7 +10326,7 @@
         <v>12.449606810000001</v>
       </c>
     </row>
-    <row r="244" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A244" s="3" t="s">
         <v>738</v>
       </c>
@@ -10353,7 +10352,7 @@
         <v>12.4611266</v>
       </c>
     </row>
-    <row r="245" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A245" s="3" t="s">
         <v>853</v>
       </c>
@@ -10379,7 +10378,7 @@
         <v>12.394792799999999</v>
       </c>
     </row>
-    <row r="246" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A246" s="3" t="s">
         <v>854</v>
       </c>
@@ -10405,7 +10404,7 @@
         <v>12.394792799999999</v>
       </c>
     </row>
-    <row r="247" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A247" s="3" t="s">
         <v>855</v>
       </c>
@@ -10431,7 +10430,7 @@
         <v>12.394792799999999</v>
       </c>
     </row>
-    <row r="248" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A248" s="3" t="s">
         <v>856</v>
       </c>
@@ -10457,7 +10456,7 @@
         <v>12.394792799999999</v>
       </c>
     </row>
-    <row r="249" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A249" s="3" t="s">
         <v>857</v>
       </c>
@@ -10483,7 +10482,7 @@
         <v>12.411088599999999</v>
       </c>
     </row>
-    <row r="250" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A250" s="3" t="s">
         <v>857</v>
       </c>
@@ -10509,7 +10508,7 @@
         <v>12.411088599999999</v>
       </c>
     </row>
-    <row r="251" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A251" s="3" t="s">
         <v>858</v>
       </c>
@@ -10535,7 +10534,7 @@
         <v>12.4457421</v>
       </c>
     </row>
-    <row r="252" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A252" s="3" t="s">
         <v>859</v>
       </c>
@@ -10561,7 +10560,7 @@
         <v>12.421317</v>
       </c>
     </row>
-    <row r="253" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A253" s="3" t="s">
         <v>860</v>
       </c>
@@ -10587,7 +10586,7 @@
         <v>12.436747499999999</v>
       </c>
     </row>
-    <row r="254" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A254" s="3" t="s">
         <v>861</v>
       </c>
@@ -10613,7 +10612,7 @@
         <v>12.421317</v>
       </c>
     </row>
-    <row r="255" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A255" s="3" t="s">
         <v>716</v>
       </c>
@@ -10639,7 +10638,7 @@
         <v>12.421317</v>
       </c>
     </row>
-    <row r="256" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A256" s="3" t="s">
         <v>862</v>
       </c>
@@ -10665,7 +10664,7 @@
         <v>12.4382193</v>
       </c>
     </row>
-    <row r="257" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A257" s="3" t="s">
         <v>863</v>
       </c>
@@ -10691,7 +10690,7 @@
         <v>12.436747499999999</v>
       </c>
     </row>
-    <row r="258" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A258" s="3" t="s">
         <v>864</v>
       </c>
@@ -10717,7 +10716,7 @@
         <v>12.433839799999999</v>
       </c>
     </row>
-    <row r="259" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A259" s="3" t="s">
         <v>865</v>
       </c>
@@ -10743,7 +10742,7 @@
         <v>12.445499399999999</v>
       </c>
     </row>
-    <row r="260" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A260" s="3" t="s">
         <v>866</v>
       </c>
@@ -10769,7 +10768,7 @@
         <v>12.441648199999999</v>
       </c>
     </row>
-    <row r="261" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A261" s="3" t="s">
         <v>867</v>
       </c>
@@ -10795,7 +10794,7 @@
         <v>12.4382193</v>
       </c>
     </row>
-    <row r="262" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A262" s="3" t="s">
         <v>868</v>
       </c>
@@ -10821,7 +10820,7 @@
         <v>12.436747499999999</v>
       </c>
     </row>
-    <row r="263" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A263" s="3" t="s">
         <v>869</v>
       </c>
@@ -10847,7 +10846,7 @@
         <v>12.4319752</v>
       </c>
     </row>
-    <row r="264" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A264" s="3" t="s">
         <v>870</v>
       </c>
@@ -10867,13 +10866,13 @@
         <v>11</v>
       </c>
       <c r="G264">
-        <v>41.859758599999999</v>
+        <v>41.859562699999998</v>
       </c>
       <c r="H264">
-        <v>12.419367100000001</v>
-      </c>
-    </row>
-    <row r="265" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+        <v>12.419344199999999</v>
+      </c>
+    </row>
+    <row r="265" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A265" s="3" t="s">
         <v>870</v>
       </c>
@@ -10893,13 +10892,13 @@
         <v>11</v>
       </c>
       <c r="G265">
-        <v>41.859758599999999</v>
+        <v>41.859562699999998</v>
       </c>
       <c r="H265">
-        <v>12.419367100000001</v>
-      </c>
-    </row>
-    <row r="266" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+        <v>12.419344199999999</v>
+      </c>
+    </row>
+    <row r="266" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A266" s="3" t="s">
         <v>871</v>
       </c>
@@ -10919,13 +10918,13 @@
         <v>11</v>
       </c>
       <c r="G266">
-        <v>41.859758599999999</v>
+        <v>41.853423571637613</v>
       </c>
       <c r="H266">
-        <v>12.419367100000001</v>
-      </c>
-    </row>
-    <row r="267" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+        <v>12.42088138568251</v>
+      </c>
+    </row>
+    <row r="267" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A267" s="3" t="s">
         <v>764</v>
       </c>
@@ -10951,7 +10950,7 @@
         <v>12.4290529</v>
       </c>
     </row>
-    <row r="268" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A268" s="3" t="s">
         <v>844</v>
       </c>
@@ -10977,7 +10976,7 @@
         <v>12.4303554</v>
       </c>
     </row>
-    <row r="269" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A269" s="3" t="s">
         <v>872</v>
       </c>
@@ -11003,7 +11002,7 @@
         <v>12.4131214</v>
       </c>
     </row>
-    <row r="270" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A270" s="3" t="s">
         <v>873</v>
       </c>
@@ -11029,7 +11028,7 @@
         <v>12.4653882</v>
       </c>
     </row>
-    <row r="271" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A271" s="3" t="s">
         <v>675</v>
       </c>
@@ -11055,7 +11054,7 @@
         <v>12.4720189</v>
       </c>
     </row>
-    <row r="272" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A272" s="3" t="s">
         <v>735</v>
       </c>
@@ -11081,7 +11080,7 @@
         <v>12.4131214</v>
       </c>
     </row>
-    <row r="273" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A273" s="3" t="s">
         <v>874</v>
       </c>
@@ -11107,7 +11106,7 @@
         <v>12.4653882</v>
       </c>
     </row>
-    <row r="274" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A274" s="3" t="s">
         <v>875</v>
       </c>
@@ -11133,7 +11132,7 @@
         <v>12.414733699999999</v>
       </c>
     </row>
-    <row r="275" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A275" s="3" t="s">
         <v>875</v>
       </c>
@@ -11159,7 +11158,7 @@
         <v>12.414733699999999</v>
       </c>
     </row>
-    <row r="276" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A276" s="3" t="s">
         <v>876</v>
       </c>
@@ -11185,7 +11184,7 @@
         <v>12.4653882</v>
       </c>
     </row>
-    <row r="277" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A277" s="3" t="s">
         <v>877</v>
       </c>
@@ -11211,7 +11210,7 @@
         <v>12.4653882</v>
       </c>
     </row>
-    <row r="278" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A278" s="3" t="s">
         <v>878</v>
       </c>
@@ -11237,7 +11236,7 @@
         <v>12.4653882</v>
       </c>
     </row>
-    <row r="279" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A279" s="3" t="s">
         <v>879</v>
       </c>
@@ -11263,7 +11262,7 @@
         <v>12.3935312</v>
       </c>
     </row>
-    <row r="280" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A280" s="3" t="s">
         <v>879</v>
       </c>
@@ -11289,7 +11288,7 @@
         <v>12.3935312</v>
       </c>
     </row>
-    <row r="281" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A281" s="3" t="s">
         <v>749</v>
       </c>
@@ -11315,7 +11314,7 @@
         <v>12.464426700000001</v>
       </c>
     </row>
-    <row r="282" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A282" s="3" t="s">
         <v>880</v>
       </c>
@@ -11341,7 +11340,7 @@
         <v>12.4692943</v>
       </c>
     </row>
-    <row r="283" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A283" s="3" t="s">
         <v>881</v>
       </c>
@@ -11367,7 +11366,7 @@
         <v>12.470989599999999</v>
       </c>
     </row>
-    <row r="284" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A284" s="3" t="s">
         <v>882</v>
       </c>
@@ -11393,7 +11392,7 @@
         <v>12.4655162</v>
       </c>
     </row>
-    <row r="285" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A285" s="3" t="s">
         <v>883</v>
       </c>
@@ -11419,7 +11418,7 @@
         <v>12.4611266</v>
       </c>
     </row>
-    <row r="286" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A286" s="3" t="s">
         <v>884</v>
       </c>
@@ -11445,7 +11444,7 @@
         <v>12.4598213</v>
       </c>
     </row>
-    <row r="287" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A287" s="3" t="s">
         <v>884</v>
       </c>
@@ -11471,7 +11470,7 @@
         <v>12.4598213</v>
       </c>
     </row>
-    <row r="288" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A288" s="3" t="s">
         <v>885</v>
       </c>
@@ -11497,7 +11496,7 @@
         <v>12.4598213</v>
       </c>
     </row>
-    <row r="289" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A289" s="3" t="s">
         <v>886</v>
       </c>
@@ -11523,7 +11522,7 @@
         <v>12.472239800000001</v>
       </c>
     </row>
-    <row r="290" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A290" s="3" t="s">
         <v>814</v>
       </c>
@@ -11549,7 +11548,7 @@
         <v>12.4692943</v>
       </c>
     </row>
-    <row r="291" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A291" s="3" t="s">
         <v>674</v>
       </c>
@@ -11627,7 +11626,7 @@
         <v>12.4693725</v>
       </c>
     </row>
-    <row r="294" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A294" s="3" t="s">
         <v>888</v>
       </c>
@@ -11653,7 +11652,7 @@
         <v>12.464426700000001</v>
       </c>
     </row>
-    <row r="295" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A295" s="3" t="s">
         <v>823</v>
       </c>
@@ -11679,7 +11678,7 @@
         <v>12.464426700000001</v>
       </c>
     </row>
-    <row r="296" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A296" s="3" t="s">
         <v>889</v>
       </c>
@@ -11705,7 +11704,7 @@
         <v>12.464426700000001</v>
       </c>
     </row>
-    <row r="297" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A297" s="3" t="s">
         <v>889</v>
       </c>
@@ -11731,7 +11730,7 @@
         <v>12.464426700000001</v>
       </c>
     </row>
-    <row r="298" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A298" s="3" t="s">
         <v>890</v>
       </c>
@@ -11809,7 +11808,7 @@
         <v>12.4688041</v>
       </c>
     </row>
-    <row r="301" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A301" s="3" t="s">
         <v>760</v>
       </c>
@@ -11835,7 +11834,7 @@
         <v>12.4679225</v>
       </c>
     </row>
-    <row r="302" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A302" s="3" t="s">
         <v>885</v>
       </c>
@@ -11861,7 +11860,7 @@
         <v>12.4598213</v>
       </c>
     </row>
-    <row r="303" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A303" s="3" t="s">
         <v>830</v>
       </c>
@@ -11887,7 +11886,7 @@
         <v>12.4653882</v>
       </c>
     </row>
-    <row r="304" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A304" s="3" t="s">
         <v>893</v>
       </c>
@@ -11913,7 +11912,7 @@
         <v>12.425168299999999</v>
       </c>
     </row>
-    <row r="305" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A305" s="3" t="s">
         <v>893</v>
       </c>
@@ -11939,7 +11938,7 @@
         <v>12.425168299999999</v>
       </c>
     </row>
-    <row r="306" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A306" s="3" t="s">
         <v>894</v>
       </c>
@@ -11959,13 +11958,13 @@
         <v>11</v>
       </c>
       <c r="G306">
-        <v>41.859758599999999</v>
+        <v>41.858779800000001</v>
       </c>
       <c r="H306">
-        <v>12.419367100000001</v>
-      </c>
-    </row>
-    <row r="307" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+        <v>12.419389600000001</v>
+      </c>
+    </row>
+    <row r="307" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A307" s="3" t="s">
         <v>894</v>
       </c>
@@ -11985,13 +11984,13 @@
         <v>11</v>
       </c>
       <c r="G307">
-        <v>41.859758599999999</v>
+        <v>41.858779800000001</v>
       </c>
       <c r="H307">
-        <v>12.419367100000001</v>
-      </c>
-    </row>
-    <row r="308" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+        <v>12.419389600000001</v>
+      </c>
+    </row>
+    <row r="308" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A308" s="3" t="s">
         <v>895</v>
       </c>
@@ -12017,7 +12016,7 @@
         <v>12.4548323</v>
       </c>
     </row>
-    <row r="309" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A309" s="3" t="s">
         <v>896</v>
       </c>
@@ -12043,7 +12042,7 @@
         <v>12.4615081</v>
       </c>
     </row>
-    <row r="310" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A310" s="3" t="s">
         <v>897</v>
       </c>
@@ -12069,7 +12068,7 @@
         <v>12.4583496</v>
       </c>
     </row>
-    <row r="311" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A311" s="3" t="s">
         <v>898</v>
       </c>
@@ -12095,7 +12094,7 @@
         <v>12.458497100000001</v>
       </c>
     </row>
-    <row r="312" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A312" s="3" t="s">
         <v>899</v>
       </c>
@@ -12121,7 +12120,7 @@
         <v>12.458497100000001</v>
       </c>
     </row>
-    <row r="313" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A313" s="3" t="s">
         <v>900</v>
       </c>
@@ -12147,7 +12146,7 @@
         <v>12.453292599999999</v>
       </c>
     </row>
-    <row r="314" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A314" s="3" t="s">
         <v>901</v>
       </c>
@@ -12173,7 +12172,7 @@
         <v>12.451320600000001</v>
       </c>
     </row>
-    <row r="315" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A315" s="3" t="s">
         <v>902</v>
       </c>
@@ -12199,7 +12198,7 @@
         <v>12.452030199999999</v>
       </c>
     </row>
-    <row r="316" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A316" s="3" t="s">
         <v>903</v>
       </c>
@@ -12225,7 +12224,7 @@
         <v>12.4653882</v>
       </c>
     </row>
-    <row r="317" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A317" s="3" t="s">
         <v>904</v>
       </c>
@@ -12251,7 +12250,7 @@
         <v>12.4541868</v>
       </c>
     </row>
-    <row r="318" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A318" s="3" t="s">
         <v>905</v>
       </c>
@@ -12277,7 +12276,7 @@
         <v>12.452030199999999</v>
       </c>
     </row>
-    <row r="319" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A319" s="3" t="s">
         <v>906</v>
       </c>
@@ -12303,7 +12302,7 @@
         <v>12.4627888</v>
       </c>
     </row>
-    <row r="320" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A320" s="3" t="s">
         <v>907</v>
       </c>
@@ -12329,7 +12328,7 @@
         <v>12.4676934</v>
       </c>
     </row>
-    <row r="321" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A321" s="3" t="s">
         <v>908</v>
       </c>
@@ -12355,7 +12354,7 @@
         <v>12.4485481</v>
       </c>
     </row>
-    <row r="322" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A322" s="3" t="s">
         <v>909</v>
       </c>
@@ -12381,7 +12380,7 @@
         <v>12.450667899999999</v>
       </c>
     </row>
-    <row r="323" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A323" s="3" t="s">
         <v>779</v>
       </c>
@@ -12407,7 +12406,7 @@
         <v>12.4618869</v>
       </c>
     </row>
-    <row r="324" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A324" s="3" t="s">
         <v>910</v>
       </c>
@@ -12433,7 +12432,7 @@
         <v>12.452363</v>
       </c>
     </row>
-    <row r="325" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A325" s="3" t="s">
         <v>911</v>
       </c>
@@ -12459,7 +12458,7 @@
         <v>12.4485481</v>
       </c>
     </row>
-    <row r="326" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A326" s="3" t="s">
         <v>912</v>
       </c>
@@ -12485,7 +12484,7 @@
         <v>12.450601900000001</v>
       </c>
     </row>
-    <row r="327" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A327" s="3" t="s">
         <v>709</v>
       </c>
@@ -12511,7 +12510,7 @@
         <v>12.4485481</v>
       </c>
     </row>
-    <row r="328" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A328" s="3" t="s">
         <v>781</v>
       </c>
@@ -12537,7 +12536,7 @@
         <v>12.450822499999999</v>
       </c>
     </row>
-    <row r="329" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A329" s="3" t="s">
         <v>913</v>
       </c>
@@ -12563,7 +12562,7 @@
         <v>12.449355799999999</v>
       </c>
     </row>
-    <row r="330" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A330" s="3" t="s">
         <v>785</v>
       </c>
@@ -12589,7 +12588,7 @@
         <v>12.457798500000001</v>
       </c>
     </row>
-    <row r="331" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A331" s="3" t="s">
         <v>784</v>
       </c>
@@ -12615,7 +12614,7 @@
         <v>12.457798500000001</v>
       </c>
     </row>
-    <row r="332" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A332" s="3" t="s">
         <v>706</v>
       </c>
@@ -12641,7 +12640,7 @@
         <v>12.461672800000001</v>
       </c>
     </row>
-    <row r="333" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A333" s="3" t="s">
         <v>914</v>
       </c>
@@ -12667,7 +12666,7 @@
         <v>12.4466479</v>
       </c>
     </row>
-    <row r="334" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A334" s="3" t="s">
         <v>853</v>
       </c>
@@ -12693,7 +12692,7 @@
         <v>12.394792799999999</v>
       </c>
     </row>
-    <row r="335" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A335" s="3" t="s">
         <v>915</v>
       </c>
@@ -12719,7 +12718,7 @@
         <v>12.4611266</v>
       </c>
     </row>
-    <row r="336" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A336" s="3" t="s">
         <v>916</v>
       </c>
@@ -12745,7 +12744,7 @@
         <v>12.394792799999999</v>
       </c>
     </row>
-    <row r="337" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A337" s="3" t="s">
         <v>917</v>
       </c>
@@ -12771,7 +12770,7 @@
         <v>12.394792799999999</v>
       </c>
     </row>
-    <row r="338" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A338" s="3" t="s">
         <v>918</v>
       </c>
@@ -12797,7 +12796,7 @@
         <v>12.394792799999999</v>
       </c>
     </row>
-    <row r="339" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A339" s="3" t="s">
         <v>919</v>
       </c>
@@ -12823,7 +12822,7 @@
         <v>12.394792799999999</v>
       </c>
     </row>
-    <row r="340" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A340" s="3" t="s">
         <v>920</v>
       </c>
@@ -12849,7 +12848,7 @@
         <v>12.456374800000001</v>
       </c>
     </row>
-    <row r="341" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A341" s="3" t="s">
         <v>921</v>
       </c>
@@ -12875,7 +12874,7 @@
         <v>12.411088599999999</v>
       </c>
     </row>
-    <row r="342" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A342" s="3" t="s">
         <v>922</v>
       </c>
@@ -12901,7 +12900,7 @@
         <v>12.411088599999999</v>
       </c>
     </row>
-    <row r="343" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A343" s="3" t="s">
         <v>923</v>
       </c>
@@ -12921,13 +12920,13 @@
         <v>11</v>
       </c>
       <c r="G343">
-        <v>41.859758599999999</v>
+        <v>41.853969999999997</v>
       </c>
       <c r="H343">
-        <v>12.419367100000001</v>
-      </c>
-    </row>
-    <row r="344" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+        <v>12.42042</v>
+      </c>
+    </row>
+    <row r="344" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A344" s="3" t="s">
         <v>802</v>
       </c>
@@ -12953,7 +12952,7 @@
         <v>12.4653882</v>
       </c>
     </row>
-    <row r="345" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A345" s="3" t="s">
         <v>924</v>
       </c>
@@ -12979,7 +12978,7 @@
         <v>12.436747499999999</v>
       </c>
     </row>
-    <row r="346" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A346" s="3" t="s">
         <v>925</v>
       </c>
@@ -13005,7 +13004,7 @@
         <v>12.421317</v>
       </c>
     </row>
-    <row r="347" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A347" s="3" t="s">
         <v>926</v>
       </c>
@@ -13031,7 +13030,7 @@
         <v>12.422085049999</v>
       </c>
     </row>
-    <row r="348" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A348" s="3" t="s">
         <v>724</v>
       </c>
@@ -13057,7 +13056,7 @@
         <v>12.440671</v>
       </c>
     </row>
-    <row r="349" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A349" s="3" t="s">
         <v>927</v>
       </c>
@@ -13083,7 +13082,7 @@
         <v>12.4544304</v>
       </c>
     </row>
-    <row r="350" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A350" s="3" t="s">
         <v>925</v>
       </c>
@@ -13109,7 +13108,7 @@
         <v>12.421317</v>
       </c>
     </row>
-    <row r="351" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A351" s="3" t="s">
         <v>688</v>
       </c>
@@ -13135,7 +13134,7 @@
         <v>12.4653882</v>
       </c>
     </row>
-    <row r="352" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A352" s="3" t="s">
         <v>928</v>
       </c>
@@ -13161,7 +13160,7 @@
         <v>12.445499399999999</v>
       </c>
     </row>
-    <row r="353" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A353" s="3" t="s">
         <v>717</v>
       </c>
@@ -13187,7 +13186,7 @@
         <v>12.4453563</v>
       </c>
     </row>
-    <row r="354" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A354" s="3" t="s">
         <v>793</v>
       </c>
@@ -13213,7 +13212,7 @@
         <v>12.436747499999999</v>
       </c>
     </row>
-    <row r="355" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A355" s="3" t="s">
         <v>928</v>
       </c>
@@ -13239,7 +13238,7 @@
         <v>12.445499399999999</v>
       </c>
     </row>
-    <row r="356" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A356" s="3" t="s">
         <v>929</v>
       </c>
@@ -13265,7 +13264,7 @@
         <v>12.440671</v>
       </c>
     </row>
-    <row r="357" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A357" s="3" t="s">
         <v>930</v>
       </c>
@@ -13291,7 +13290,7 @@
         <v>12.436747499999999</v>
       </c>
     </row>
-    <row r="358" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A358" s="3" t="s">
         <v>931</v>
       </c>
@@ -13317,7 +13316,7 @@
         <v>12.441648199999999</v>
       </c>
     </row>
-    <row r="359" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A359" s="3" t="s">
         <v>725</v>
       </c>
@@ -13343,7 +13342,7 @@
         <v>12.394792799999999</v>
       </c>
     </row>
-    <row r="360" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A360" s="3" t="s">
         <v>932</v>
       </c>
@@ -13369,7 +13368,7 @@
         <v>12.4284626</v>
       </c>
     </row>
-    <row r="361" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A361" s="3" t="s">
         <v>869</v>
       </c>
@@ -13395,7 +13394,7 @@
         <v>12.4319752</v>
       </c>
     </row>
-    <row r="362" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A362" s="3" t="s">
         <v>833</v>
       </c>
@@ -13415,13 +13414,13 @@
         <v>11</v>
       </c>
       <c r="G362">
-        <v>41.859758599999999</v>
+        <v>41.861347899999998</v>
       </c>
       <c r="H362">
-        <v>12.419367100000001</v>
-      </c>
-    </row>
-    <row r="363" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+        <v>12.419210519261711</v>
+      </c>
+    </row>
+    <row r="363" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A363" s="3" t="s">
         <v>833</v>
       </c>
@@ -13441,13 +13440,13 @@
         <v>11</v>
       </c>
       <c r="G363">
-        <v>41.859758599999999</v>
+        <v>41.861347899999998</v>
       </c>
       <c r="H363">
-        <v>12.419367100000001</v>
-      </c>
-    </row>
-    <row r="364" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+        <v>12.419210519261711</v>
+      </c>
+    </row>
+    <row r="364" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A364" s="3" t="s">
         <v>871</v>
       </c>
@@ -13467,13 +13466,13 @@
         <v>11</v>
       </c>
       <c r="G364">
-        <v>41.859758599999999</v>
+        <v>41.853423571637613</v>
       </c>
       <c r="H364">
-        <v>12.419367100000001</v>
-      </c>
-    </row>
-    <row r="365" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+        <v>12.42088138568251</v>
+      </c>
+    </row>
+    <row r="365" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A365" s="3" t="s">
         <v>933</v>
       </c>
@@ -13499,7 +13498,7 @@
         <v>12.425168299999999</v>
       </c>
     </row>
-    <row r="366" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A366" s="3" t="s">
         <v>764</v>
       </c>
@@ -13525,7 +13524,7 @@
         <v>12.4290529</v>
       </c>
     </row>
-    <row r="367" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A367" s="3" t="s">
         <v>934</v>
       </c>
@@ -13545,13 +13544,13 @@
         <v>11</v>
       </c>
       <c r="G367">
-        <v>41.859758599999999</v>
+        <v>41.8521353</v>
       </c>
       <c r="H367">
-        <v>12.419367100000001</v>
-      </c>
-    </row>
-    <row r="368" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+        <v>12.422168299999999</v>
+      </c>
+    </row>
+    <row r="368" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A368" s="3" t="s">
         <v>935</v>
       </c>
@@ -13571,13 +13570,13 @@
         <v>11</v>
       </c>
       <c r="G368">
-        <v>41.859758599999999</v>
+        <v>41.85472</v>
       </c>
       <c r="H368">
-        <v>12.419367100000001</v>
-      </c>
-    </row>
-    <row r="369" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+        <v>12.42001</v>
+      </c>
+    </row>
+    <row r="369" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A369" s="3" t="s">
         <v>936</v>
       </c>
@@ -13603,7 +13602,7 @@
         <v>12.4653882</v>
       </c>
     </row>
-    <row r="370" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A370" s="3" t="s">
         <v>936</v>
       </c>
@@ -13629,7 +13628,7 @@
         <v>12.4653882</v>
       </c>
     </row>
-    <row r="371" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A371" s="3" t="s">
         <v>936</v>
       </c>
@@ -13655,7 +13654,7 @@
         <v>12.4653882</v>
       </c>
     </row>
-    <row r="372" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A372" s="3" t="s">
         <v>734</v>
       </c>
@@ -13681,7 +13680,7 @@
         <v>12.4131214</v>
       </c>
     </row>
-    <row r="373" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A373" s="3" t="s">
         <v>679</v>
       </c>
@@ -13707,7 +13706,7 @@
         <v>12.4655162</v>
       </c>
     </row>
-    <row r="374" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A374" s="3" t="s">
         <v>937</v>
       </c>
@@ -13733,7 +13732,7 @@
         <v>12.4542901</v>
       </c>
     </row>
-    <row r="375" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A375" s="3" t="s">
         <v>937</v>
       </c>
@@ -13759,7 +13758,7 @@
         <v>12.4542901</v>
       </c>
     </row>
-    <row r="376" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A376" s="3" t="s">
         <v>938</v>
       </c>
@@ -13785,7 +13784,7 @@
         <v>12.395972799999999</v>
       </c>
     </row>
-    <row r="377" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A377" s="3" t="s">
         <v>939</v>
       </c>
@@ -13811,7 +13810,7 @@
         <v>12.396012000000001</v>
       </c>
     </row>
-    <row r="378" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A378" s="3" t="s">
         <v>940</v>
       </c>
@@ -13837,7 +13836,7 @@
         <v>12.450764299999999</v>
       </c>
     </row>
-    <row r="379" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A379" s="3" t="s">
         <v>781</v>
       </c>
@@ -13863,7 +13862,7 @@
         <v>12.450822499999999</v>
       </c>
     </row>
-    <row r="380" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A380" s="3" t="s">
         <v>941</v>
       </c>
@@ -13889,7 +13888,7 @@
         <v>12.4653882</v>
       </c>
     </row>
-    <row r="381" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A381" s="3" t="s">
         <v>942</v>
       </c>
@@ -13915,7 +13914,7 @@
         <v>12.4381301</v>
       </c>
     </row>
-    <row r="382" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A382" s="3" t="s">
         <v>913</v>
       </c>
@@ -13941,7 +13940,7 @@
         <v>12.449355799999999</v>
       </c>
     </row>
-    <row r="383" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A383" s="3" t="s">
         <v>943</v>
       </c>
@@ -13967,7 +13966,7 @@
         <v>12.458497100000001</v>
       </c>
     </row>
-    <row r="384" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A384" s="3" t="s">
         <v>944</v>
       </c>
@@ -14019,7 +14018,7 @@
         <v>12.468511599999999</v>
       </c>
     </row>
-    <row r="386" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A386" s="3" t="s">
         <v>946</v>
       </c>
@@ -14045,7 +14044,7 @@
         <v>12.465145700000001</v>
       </c>
     </row>
-    <row r="387" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A387" s="3" t="s">
         <v>947</v>
       </c>
@@ -14071,7 +14070,7 @@
         <v>12.4679225</v>
       </c>
     </row>
-    <row r="388" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A388" s="3" t="s">
         <v>679</v>
       </c>
@@ -14097,7 +14096,7 @@
         <v>12.4655162</v>
       </c>
     </row>
-    <row r="389" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A389" s="3" t="s">
         <v>753</v>
       </c>
@@ -14123,7 +14122,7 @@
         <v>12.4655162</v>
       </c>
     </row>
-    <row r="390" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A390" s="3" t="s">
         <v>680</v>
       </c>
@@ -14149,7 +14148,7 @@
         <v>12.4672968</v>
       </c>
     </row>
-    <row r="391" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A391" s="3" t="s">
         <v>751</v>
       </c>
@@ -14201,7 +14200,7 @@
         <v>12.4676752</v>
       </c>
     </row>
-    <row r="393" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A393" s="3" t="s">
         <v>949</v>
       </c>
@@ -14227,7 +14226,7 @@
         <v>12.4679225</v>
       </c>
     </row>
-    <row r="394" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A394" s="3" t="s">
         <v>950</v>
       </c>
@@ -14253,7 +14252,7 @@
         <v>12.464426700000001</v>
       </c>
     </row>
-    <row r="395" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A395" s="3" t="s">
         <v>951</v>
       </c>
@@ -14279,7 +14278,7 @@
         <v>12.464426700000001</v>
       </c>
     </row>
-    <row r="396" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A396" s="3" t="s">
         <v>952</v>
       </c>
@@ -14305,7 +14304,7 @@
         <v>12.4679225</v>
       </c>
     </row>
-    <row r="397" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A397" s="3" t="s">
         <v>829</v>
       </c>
@@ -14331,7 +14330,7 @@
         <v>12.464426700000001</v>
       </c>
     </row>
-    <row r="398" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A398" s="3" t="s">
         <v>953</v>
       </c>
@@ -14357,7 +14356,7 @@
         <v>12.422466399999999</v>
       </c>
     </row>
-    <row r="399" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A399" s="3" t="s">
         <v>954</v>
       </c>
@@ -14383,7 +14382,7 @@
         <v>12.425168299999999</v>
       </c>
     </row>
-    <row r="400" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A400" s="3" t="s">
         <v>955</v>
       </c>
@@ -14409,7 +14408,7 @@
         <v>12.451435699998999</v>
       </c>
     </row>
-    <row r="401" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A401" s="3" t="s">
         <v>956</v>
       </c>
@@ -14435,7 +14434,7 @@
         <v>12.4627888</v>
       </c>
     </row>
-    <row r="402" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A402" s="3" t="s">
         <v>836</v>
       </c>
@@ -14461,7 +14460,7 @@
         <v>12.4579895</v>
       </c>
     </row>
-    <row r="403" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A403" s="3" t="s">
         <v>693</v>
       </c>
@@ -14487,7 +14486,7 @@
         <v>12.452281899999999</v>
       </c>
     </row>
-    <row r="404" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A404" s="3" t="s">
         <v>838</v>
       </c>
@@ -14513,7 +14512,7 @@
         <v>12.458665</v>
       </c>
     </row>
-    <row r="405" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A405" s="3" t="s">
         <v>957</v>
       </c>
@@ -14539,7 +14538,7 @@
         <v>12.457281200000001</v>
       </c>
     </row>
-    <row r="406" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A406" s="3" t="s">
         <v>958</v>
       </c>
@@ -14565,7 +14564,7 @@
         <v>12.4583496</v>
       </c>
     </row>
-    <row r="407" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A407" s="3" t="s">
         <v>959</v>
       </c>
@@ -14591,7 +14590,7 @@
         <v>12.458497100000001</v>
       </c>
     </row>
-    <row r="408" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A408" s="3" t="s">
         <v>960</v>
       </c>
@@ -14617,7 +14616,7 @@
         <v>12.4583496</v>
       </c>
     </row>
-    <row r="409" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A409" s="3" t="s">
         <v>961</v>
       </c>
@@ -14643,7 +14642,7 @@
         <v>12.458497100000001</v>
       </c>
     </row>
-    <row r="410" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A410" s="3" t="s">
         <v>772</v>
       </c>
@@ -14669,7 +14668,7 @@
         <v>12.4541868</v>
       </c>
     </row>
-    <row r="411" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A411" s="3" t="s">
         <v>962</v>
       </c>
@@ -14695,7 +14694,7 @@
         <v>12.4541868</v>
       </c>
     </row>
-    <row r="412" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A412" s="3" t="s">
         <v>963</v>
       </c>
@@ -14721,7 +14720,7 @@
         <v>12.451320600000001</v>
       </c>
     </row>
-    <row r="413" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A413" s="3" t="s">
         <v>962</v>
       </c>
@@ -14747,7 +14746,7 @@
         <v>12.4541868</v>
       </c>
     </row>
-    <row r="414" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A414" s="3" t="s">
         <v>903</v>
       </c>
@@ -14773,7 +14772,7 @@
         <v>12.4653882</v>
       </c>
     </row>
-    <row r="415" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A415" s="3" t="s">
         <v>964</v>
       </c>
@@ -14799,7 +14798,7 @@
         <v>12.449409299999999</v>
       </c>
     </row>
-    <row r="416" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A416" s="3" t="s">
         <v>715</v>
       </c>
@@ -14825,7 +14824,7 @@
         <v>12.453292599999999</v>
       </c>
     </row>
-    <row r="417" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A417" s="3" t="s">
         <v>775</v>
       </c>
@@ -14851,7 +14850,7 @@
         <v>12.4653882</v>
       </c>
     </row>
-    <row r="418" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A418" s="3" t="s">
         <v>778</v>
       </c>
@@ -14877,7 +14876,7 @@
         <v>12.4653882</v>
       </c>
     </row>
-    <row r="419" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A419" s="3" t="s">
         <v>705</v>
       </c>
@@ -14903,7 +14902,7 @@
         <v>12.450667899999999</v>
       </c>
     </row>
-    <row r="420" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A420" s="3" t="s">
         <v>965</v>
       </c>
@@ -14929,7 +14928,7 @@
         <v>12.450601900000001</v>
       </c>
     </row>
-    <row r="421" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A421" s="3" t="s">
         <v>966</v>
       </c>
@@ -14955,7 +14954,7 @@
         <v>12.459636400000001</v>
       </c>
     </row>
-    <row r="422" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A422" s="3" t="s">
         <v>967</v>
       </c>
@@ -14981,7 +14980,7 @@
         <v>12.450601900000001</v>
       </c>
     </row>
-    <row r="423" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A423" s="3" t="s">
         <v>710</v>
       </c>
@@ -15007,7 +15006,7 @@
         <v>12.4568061</v>
       </c>
     </row>
-    <row r="424" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A424" s="3" t="s">
         <v>968</v>
       </c>
@@ -15033,7 +15032,7 @@
         <v>12.463433999999999</v>
       </c>
     </row>
-    <row r="425" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A425" s="3" t="s">
         <v>915</v>
       </c>
@@ -15059,7 +15058,7 @@
         <v>12.4611266</v>
       </c>
     </row>
-    <row r="426" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A426" s="3" t="s">
         <v>788</v>
       </c>
@@ -15085,7 +15084,7 @@
         <v>12.4611974</v>
       </c>
     </row>
-    <row r="427" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A427" s="3" t="s">
         <v>788</v>
       </c>
@@ -15111,7 +15110,7 @@
         <v>12.4611974</v>
       </c>
     </row>
-    <row r="428" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A428" s="3" t="s">
         <v>969</v>
       </c>
@@ -15137,7 +15136,7 @@
         <v>12.394792799999999</v>
       </c>
     </row>
-    <row r="429" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A429" s="3" t="s">
         <v>918</v>
       </c>
@@ -15163,7 +15162,7 @@
         <v>12.394792799999999</v>
       </c>
     </row>
-    <row r="430" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A430" s="3" t="s">
         <v>970</v>
       </c>
@@ -15189,7 +15188,7 @@
         <v>12.394792799999999</v>
       </c>
     </row>
-    <row r="431" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A431" s="3" t="s">
         <v>971</v>
       </c>
@@ -15215,7 +15214,7 @@
         <v>12.394792799999999</v>
       </c>
     </row>
-    <row r="432" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A432" s="3" t="s">
         <v>972</v>
       </c>
@@ -15241,7 +15240,7 @@
         <v>12.394792799999999</v>
       </c>
     </row>
-    <row r="433" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A433" s="3" t="s">
         <v>973</v>
       </c>
@@ -15267,7 +15266,7 @@
         <v>12.4600893</v>
       </c>
     </row>
-    <row r="434" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A434" s="3" t="s">
         <v>974</v>
       </c>
@@ -15293,7 +15292,7 @@
         <v>12.394792799999999</v>
       </c>
     </row>
-    <row r="435" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A435" s="3" t="s">
         <v>975</v>
       </c>
@@ -15319,7 +15318,7 @@
         <v>12.394792799999999</v>
       </c>
     </row>
-    <row r="436" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A436" s="3" t="s">
         <v>976</v>
       </c>
@@ -15345,7 +15344,7 @@
         <v>12.4319752</v>
       </c>
     </row>
-    <row r="437" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A437" s="3" t="s">
         <v>688</v>
       </c>
@@ -15371,7 +15370,7 @@
         <v>12.4653882</v>
       </c>
     </row>
-    <row r="438" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A438" s="3" t="s">
         <v>718</v>
       </c>
@@ -15397,7 +15396,7 @@
         <v>12.441648199999999</v>
       </c>
     </row>
-    <row r="439" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A439" s="3" t="s">
         <v>977</v>
       </c>
@@ -15423,7 +15422,7 @@
         <v>12.436747499999999</v>
       </c>
     </row>
-    <row r="440" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A440" s="3" t="s">
         <v>978</v>
       </c>
@@ -15449,7 +15448,7 @@
         <v>12.4262792</v>
       </c>
     </row>
-    <row r="441" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A441" s="3" t="s">
         <v>979</v>
       </c>
@@ -15475,7 +15474,7 @@
         <v>12.4381301</v>
       </c>
     </row>
-    <row r="442" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A442" s="3" t="s">
         <v>719</v>
       </c>
@@ -15501,7 +15500,7 @@
         <v>12.4453563</v>
       </c>
     </row>
-    <row r="443" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A443" s="3" t="s">
         <v>860</v>
       </c>
@@ -15527,7 +15526,7 @@
         <v>12.436747499999999</v>
       </c>
     </row>
-    <row r="444" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A444" s="3" t="s">
         <v>980</v>
       </c>
@@ -15553,7 +15552,7 @@
         <v>12.440671</v>
       </c>
     </row>
-    <row r="445" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A445" s="3" t="s">
         <v>981</v>
       </c>
@@ -15579,7 +15578,7 @@
         <v>12.4262792</v>
       </c>
     </row>
-    <row r="446" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A446" s="3" t="s">
         <v>977</v>
       </c>
@@ -15605,7 +15604,7 @@
         <v>12.436747499999999</v>
       </c>
     </row>
-    <row r="447" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A447" s="3" t="s">
         <v>982</v>
       </c>
@@ -15631,7 +15630,7 @@
         <v>12.4382193</v>
       </c>
     </row>
-    <row r="448" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A448" s="3" t="s">
         <v>932</v>
       </c>
@@ -15657,7 +15656,7 @@
         <v>12.4284626</v>
       </c>
     </row>
-    <row r="449" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A449" s="3" t="s">
         <v>983</v>
       </c>
@@ -15683,7 +15682,7 @@
         <v>12.444683899999999</v>
       </c>
     </row>
-    <row r="450" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A450" s="3" t="s">
         <v>984</v>
       </c>
@@ -15709,7 +15708,7 @@
         <v>12.4453563</v>
       </c>
     </row>
-    <row r="451" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A451" s="3" t="s">
         <v>985</v>
       </c>
@@ -15735,7 +15734,7 @@
         <v>12.4382193</v>
       </c>
     </row>
-    <row r="452" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A452" s="3" t="s">
         <v>730</v>
       </c>
@@ -15761,7 +15760,7 @@
         <v>12.4281592</v>
       </c>
     </row>
-    <row r="453" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A453" s="3" t="s">
         <v>986</v>
       </c>
@@ -15787,7 +15786,7 @@
         <v>12.417929900000001</v>
       </c>
     </row>
-    <row r="454" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A454" s="3" t="s">
         <v>987</v>
       </c>
@@ -15807,13 +15806,13 @@
         <v>11</v>
       </c>
       <c r="G454">
-        <v>41.859758599999999</v>
+        <v>41.857787799999997</v>
       </c>
       <c r="H454">
-        <v>12.419367100000001</v>
-      </c>
-    </row>
-    <row r="455" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+        <v>12.4196279</v>
+      </c>
+    </row>
+    <row r="455" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A455" s="3" t="s">
         <v>987</v>
       </c>
@@ -15833,13 +15832,13 @@
         <v>11</v>
       </c>
       <c r="G455">
-        <v>41.859758599999999</v>
+        <v>41.857787799999997</v>
       </c>
       <c r="H455">
-        <v>12.419367100000001</v>
-      </c>
-    </row>
-    <row r="456" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+        <v>12.4196279</v>
+      </c>
+    </row>
+    <row r="456" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A456" s="3" t="s">
         <v>988</v>
       </c>
@@ -15859,13 +15858,13 @@
         <v>11</v>
       </c>
       <c r="G456">
-        <v>41.859758599999999</v>
+        <v>41.853846799999999</v>
       </c>
       <c r="H456">
-        <v>12.419367100000001</v>
-      </c>
-    </row>
-    <row r="457" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+        <v>12.420521300000001</v>
+      </c>
+    </row>
+    <row r="457" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A457" s="3" t="s">
         <v>988</v>
       </c>
@@ -15885,13 +15884,13 @@
         <v>11</v>
       </c>
       <c r="G457">
-        <v>41.859758599999999</v>
+        <v>41.853846799999999</v>
       </c>
       <c r="H457">
-        <v>12.419367100000001</v>
-      </c>
-    </row>
-    <row r="458" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+        <v>12.420521300000001</v>
+      </c>
+    </row>
+    <row r="458" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A458" s="3" t="s">
         <v>989</v>
       </c>
@@ -15911,13 +15910,13 @@
         <v>11</v>
       </c>
       <c r="G458">
-        <v>41.859758599999999</v>
+        <v>41.860652250000001</v>
       </c>
       <c r="H458">
-        <v>12.419367100000001</v>
-      </c>
-    </row>
-    <row r="459" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+        <v>12.418949478622229</v>
+      </c>
+    </row>
+    <row r="459" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A459" s="3" t="s">
         <v>989</v>
       </c>
@@ -15937,13 +15936,13 @@
         <v>11</v>
       </c>
       <c r="G459">
-        <v>41.859758599999999</v>
+        <v>41.860652250000001</v>
       </c>
       <c r="H459">
-        <v>12.419367100000001</v>
-      </c>
-    </row>
-    <row r="460" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+        <v>12.418949478622229</v>
+      </c>
+    </row>
+    <row r="460" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A460" s="3" t="s">
         <v>872</v>
       </c>
@@ -15969,7 +15968,7 @@
         <v>12.4131214</v>
       </c>
     </row>
-    <row r="461" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A461" s="3" t="s">
         <v>990</v>
       </c>
@@ -15995,7 +15994,7 @@
         <v>12.4131214</v>
       </c>
     </row>
-    <row r="462" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A462" s="3" t="s">
         <v>991</v>
       </c>
@@ -16021,7 +16020,7 @@
         <v>12.4143522</v>
       </c>
     </row>
-    <row r="463" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A463" s="3" t="s">
         <v>991</v>
       </c>
@@ -16047,7 +16046,7 @@
         <v>12.4143522</v>
       </c>
     </row>
-    <row r="464" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A464" s="3" t="s">
         <v>992</v>
       </c>
@@ -16073,7 +16072,7 @@
         <v>12.4653882</v>
       </c>
     </row>
-    <row r="465" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A465" s="3" t="s">
         <v>872</v>
       </c>
@@ -16099,7 +16098,7 @@
         <v>12.4131214</v>
       </c>
     </row>
-    <row r="466" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A466" s="3" t="s">
         <v>936</v>
       </c>
@@ -16125,7 +16124,7 @@
         <v>12.4653882</v>
       </c>
     </row>
-    <row r="467" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A467" s="3" t="s">
         <v>993</v>
       </c>
@@ -16151,7 +16150,7 @@
         <v>12.4131214</v>
       </c>
     </row>
-    <row r="468" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A468" s="3" t="s">
         <v>994</v>
       </c>
@@ -16177,7 +16176,7 @@
         <v>12.414733699999999</v>
       </c>
     </row>
-    <row r="469" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A469" s="3" t="s">
         <v>994</v>
       </c>
@@ -16203,7 +16202,7 @@
         <v>12.414733699999999</v>
       </c>
     </row>
-    <row r="470" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A470" s="3" t="s">
         <v>995</v>
       </c>
@@ -16229,7 +16228,7 @@
         <v>12.394792799999999</v>
       </c>
     </row>
-    <row r="471" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A471" s="3" t="s">
         <v>996</v>
       </c>
@@ -16255,7 +16254,7 @@
         <v>12.4653882</v>
       </c>
     </row>
-    <row r="472" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A472" s="3" t="s">
         <v>876</v>
       </c>
@@ -16281,7 +16280,7 @@
         <v>12.4653882</v>
       </c>
     </row>
-    <row r="473" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A473" s="3" t="s">
         <v>997</v>
       </c>
@@ -16307,7 +16306,7 @@
         <v>12.3935312</v>
       </c>
     </row>
-    <row r="474" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A474" s="3" t="s">
         <v>997</v>
       </c>
@@ -16333,7 +16332,7 @@
         <v>12.3935312</v>
       </c>
     </row>
-    <row r="475" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A475" s="3" t="s">
         <v>868</v>
       </c>
@@ -16359,7 +16358,7 @@
         <v>12.436747499999999</v>
       </c>
     </row>
-    <row r="476" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A476" s="3" t="s">
         <v>966</v>
       </c>
@@ -16385,7 +16384,7 @@
         <v>12.459636400000001</v>
       </c>
     </row>
-    <row r="477" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A477" s="3" t="s">
         <v>998</v>
       </c>
@@ -16411,7 +16410,7 @@
         <v>12.394792799999999</v>
       </c>
     </row>
-    <row r="478" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A478" s="3" t="s">
         <v>706</v>
       </c>
@@ -16437,7 +16436,7 @@
         <v>12.461672800000001</v>
       </c>
     </row>
-    <row r="479" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A479" s="3" t="s">
         <v>909</v>
       </c>
@@ -16463,7 +16462,7 @@
         <v>12.450667899999999</v>
       </c>
     </row>
-    <row r="480" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A480" s="3" t="s">
         <v>999</v>
       </c>
@@ -16489,7 +16488,7 @@
         <v>12.4350468</v>
       </c>
     </row>
-    <row r="481" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A481" s="3" t="s">
         <v>964</v>
       </c>
@@ -16515,7 +16514,7 @@
         <v>12.449409299999999</v>
       </c>
     </row>
-    <row r="482" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A482" s="3" t="s">
         <v>1000</v>
       </c>
@@ -16541,7 +16540,7 @@
         <v>12.452363</v>
       </c>
     </row>
-    <row r="483" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A483" s="3" t="s">
         <v>1000</v>
       </c>
@@ -16567,7 +16566,7 @@
         <v>12.452363</v>
       </c>
     </row>
-    <row r="484" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A484" s="3" t="s">
         <v>881</v>
       </c>
@@ -16593,7 +16592,7 @@
         <v>12.470989599999999</v>
       </c>
     </row>
-    <row r="485" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A485" s="3" t="s">
         <v>1001</v>
       </c>
@@ -16619,7 +16618,7 @@
         <v>12.4750234</v>
       </c>
     </row>
-    <row r="486" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A486" s="3" t="s">
         <v>676</v>
       </c>
@@ -16645,7 +16644,7 @@
         <v>12.4715598</v>
       </c>
     </row>
-    <row r="487" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A487" s="3" t="s">
         <v>1002</v>
       </c>
@@ -16671,7 +16670,7 @@
         <v>12.472239800000001</v>
       </c>
     </row>
-    <row r="488" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A488" s="3" t="s">
         <v>1003</v>
       </c>
@@ -16697,7 +16696,7 @@
         <v>12.4689797</v>
       </c>
     </row>
-    <row r="489" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A489" s="3" t="s">
         <v>1003</v>
       </c>
@@ -16723,7 +16722,7 @@
         <v>12.4689797</v>
       </c>
     </row>
-    <row r="490" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A490" s="3" t="s">
         <v>1004</v>
       </c>
@@ -16749,7 +16748,7 @@
         <v>12.4679225</v>
       </c>
     </row>
-    <row r="491" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A491" s="3" t="s">
         <v>1004</v>
       </c>
@@ -16775,7 +16774,7 @@
         <v>12.4679225</v>
       </c>
     </row>
-    <row r="492" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A492" s="3" t="s">
         <v>827</v>
       </c>
@@ -16801,7 +16800,7 @@
         <v>12.472239800000001</v>
       </c>
     </row>
-    <row r="493" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A493" s="3" t="s">
         <v>1005</v>
       </c>
@@ -16853,7 +16852,7 @@
         <v>12.468095999999999</v>
       </c>
     </row>
-    <row r="495" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A495" s="3" t="s">
         <v>1007</v>
       </c>
@@ -16879,7 +16878,7 @@
         <v>12.464426700000001</v>
       </c>
     </row>
-    <row r="496" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A496" s="3" t="s">
         <v>1008</v>
       </c>
@@ -16905,7 +16904,7 @@
         <v>12.4679225</v>
       </c>
     </row>
-    <row r="497" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A497" s="3" t="s">
         <v>949</v>
       </c>
@@ -16931,7 +16930,7 @@
         <v>12.4679225</v>
       </c>
     </row>
-    <row r="498" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A498" s="3" t="s">
         <v>1009</v>
       </c>
@@ -16957,7 +16956,7 @@
         <v>12.464426700000001</v>
       </c>
     </row>
-    <row r="499" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A499" s="3" t="s">
         <v>1010</v>
       </c>
@@ -16983,7 +16982,7 @@
         <v>12.464426700000001</v>
       </c>
     </row>
-    <row r="500" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A500" s="3" t="s">
         <v>1011</v>
       </c>
@@ -17009,7 +17008,7 @@
         <v>12.464426700000001</v>
       </c>
     </row>
-    <row r="501" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A501" s="3" t="s">
         <v>761</v>
       </c>
@@ -17035,7 +17034,7 @@
         <v>12.4672248</v>
       </c>
     </row>
-    <row r="502" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A502" s="3" t="s">
         <v>952</v>
       </c>
@@ -17061,7 +17060,7 @@
         <v>12.4679225</v>
       </c>
     </row>
-    <row r="503" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A503" s="3" t="s">
         <v>762</v>
       </c>
@@ -17087,7 +17086,7 @@
         <v>12.4285136</v>
       </c>
     </row>
-    <row r="504" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A504" s="3" t="s">
         <v>1012</v>
       </c>
@@ -17113,7 +17112,7 @@
         <v>12.422466399999999</v>
       </c>
     </row>
-    <row r="505" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A505" s="3" t="s">
         <v>1012</v>
       </c>
@@ -17139,7 +17138,7 @@
         <v>12.422466399999999</v>
       </c>
     </row>
-    <row r="506" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A506" s="3" t="s">
         <v>1013</v>
       </c>
@@ -17165,7 +17164,7 @@
         <v>12.4653882</v>
       </c>
     </row>
-    <row r="507" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A507" s="3" t="s">
         <v>1014</v>
       </c>
@@ -17191,7 +17190,7 @@
         <v>12.4653882</v>
       </c>
     </row>
-    <row r="508" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A508" s="3" t="s">
         <v>1015</v>
       </c>
@@ -17217,7 +17216,7 @@
         <v>12.417929900000001</v>
       </c>
     </row>
-    <row r="509" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A509" s="3" t="s">
         <v>1016</v>
       </c>
@@ -17243,7 +17242,7 @@
         <v>12.414733699999999</v>
       </c>
     </row>
-    <row r="510" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A510" s="3" t="s">
         <v>1016</v>
       </c>
@@ -17269,7 +17268,7 @@
         <v>12.414733699999999</v>
       </c>
     </row>
-    <row r="511" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A511" s="3" t="s">
         <v>1017</v>
       </c>
@@ -17295,7 +17294,7 @@
         <v>12.455799900000001</v>
       </c>
     </row>
-    <row r="512" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A512" s="3" t="s">
         <v>955</v>
       </c>
@@ -17321,7 +17320,7 @@
         <v>12.451435699998999</v>
       </c>
     </row>
-    <row r="513" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A513" s="3" t="s">
         <v>1018</v>
       </c>
@@ -17347,7 +17346,7 @@
         <v>12.458497100000001</v>
       </c>
     </row>
-    <row r="514" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A514" s="3" t="s">
         <v>1019</v>
       </c>
@@ -17373,7 +17372,7 @@
         <v>12.452281899999999</v>
       </c>
     </row>
-    <row r="515" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A515" s="3" t="s">
         <v>896</v>
       </c>
@@ -17399,7 +17398,7 @@
         <v>12.4615081</v>
       </c>
     </row>
-    <row r="516" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A516" s="3" t="s">
         <v>1020</v>
       </c>
@@ -17425,7 +17424,7 @@
         <v>12.4476464</v>
       </c>
     </row>
-    <row r="517" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A517" s="3" t="s">
         <v>1021</v>
       </c>
@@ -17451,7 +17450,7 @@
         <v>12.458343599999999</v>
       </c>
     </row>
-    <row r="518" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A518" s="3" t="s">
         <v>899</v>
       </c>
@@ -17477,7 +17476,7 @@
         <v>12.458497100000001</v>
       </c>
     </row>
-    <row r="519" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A519" s="3" t="s">
         <v>1022</v>
       </c>
@@ -17503,7 +17502,7 @@
         <v>12.4471019</v>
       </c>
     </row>
-    <row r="520" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A520" s="3" t="s">
         <v>906</v>
       </c>
@@ -17529,7 +17528,7 @@
         <v>12.4627888</v>
       </c>
     </row>
-    <row r="521" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A521" s="3" t="s">
         <v>701</v>
       </c>
@@ -17555,7 +17554,7 @@
         <v>12.451320600000001</v>
       </c>
     </row>
-    <row r="522" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A522" s="3" t="s">
         <v>1023</v>
       </c>
@@ -17581,7 +17580,7 @@
         <v>12.4627888</v>
       </c>
     </row>
-    <row r="523" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A523" s="3" t="s">
         <v>843</v>
       </c>
@@ -17607,7 +17606,7 @@
         <v>12.4653882</v>
       </c>
     </row>
-    <row r="524" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A524" s="3" t="s">
         <v>1024</v>
       </c>
@@ -17633,7 +17632,7 @@
         <v>12.449409299999999</v>
       </c>
     </row>
-    <row r="525" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A525" s="3" t="s">
         <v>1025</v>
       </c>
@@ -17659,7 +17658,7 @@
         <v>12.4542901</v>
       </c>
     </row>
-    <row r="526" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A526" s="3" t="s">
         <v>1026</v>
       </c>
@@ -17685,7 +17684,7 @@
         <v>12.4653882</v>
       </c>
     </row>
-    <row r="527" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A527" s="3" t="s">
         <v>907</v>
       </c>
@@ -17711,7 +17710,7 @@
         <v>12.4676934</v>
       </c>
     </row>
-    <row r="528" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A528" s="3" t="s">
         <v>1027</v>
       </c>
@@ -17737,7 +17736,7 @@
         <v>12.4476464</v>
       </c>
     </row>
-    <row r="529" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A529" s="3" t="s">
         <v>1028</v>
       </c>
@@ -17763,7 +17762,7 @@
         <v>12.4476464</v>
       </c>
     </row>
-    <row r="530" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A530" s="3" t="s">
         <v>1029</v>
       </c>
@@ -17789,7 +17788,7 @@
         <v>12.4476464</v>
       </c>
     </row>
-    <row r="531" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A531" s="3" t="s">
         <v>1030</v>
       </c>
@@ -17815,7 +17814,7 @@
         <v>12.462877300000001</v>
       </c>
     </row>
-    <row r="532" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A532" s="3" t="s">
         <v>784</v>
       </c>
@@ -17841,7 +17840,7 @@
         <v>12.457798500000001</v>
       </c>
     </row>
-    <row r="533" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A533" s="3" t="s">
         <v>955</v>
       </c>
@@ -17867,7 +17866,7 @@
         <v>12.451435699998999</v>
       </c>
     </row>
-    <row r="534" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A534" s="3" t="s">
         <v>883</v>
       </c>
@@ -17893,7 +17892,7 @@
         <v>12.4611266</v>
       </c>
     </row>
-    <row r="535" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A535" s="3" t="s">
         <v>974</v>
       </c>
@@ -17919,7 +17918,7 @@
         <v>12.394792799999999</v>
       </c>
     </row>
-    <row r="536" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A536" s="3" t="s">
         <v>921</v>
       </c>
@@ -17945,7 +17944,7 @@
         <v>12.411088599999999</v>
       </c>
     </row>
-    <row r="537" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A537" s="3" t="s">
         <v>1031</v>
       </c>
@@ -17971,7 +17970,7 @@
         <v>12.456374800000001</v>
       </c>
     </row>
-    <row r="538" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A538" s="3" t="s">
         <v>978</v>
       </c>
@@ -17997,7 +17996,7 @@
         <v>12.4262792</v>
       </c>
     </row>
-    <row r="539" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A539" s="3" t="s">
         <v>1032</v>
       </c>
@@ -18023,7 +18022,7 @@
         <v>12.4457421</v>
       </c>
     </row>
-    <row r="540" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A540" s="3" t="s">
         <v>716</v>
       </c>
@@ -18049,7 +18048,7 @@
         <v>12.421317</v>
       </c>
     </row>
-    <row r="541" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A541" s="3" t="s">
         <v>795</v>
       </c>
@@ -18075,7 +18074,7 @@
         <v>12.420400600000001</v>
       </c>
     </row>
-    <row r="542" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A542" s="3" t="s">
         <v>861</v>
       </c>
@@ -18101,7 +18100,7 @@
         <v>12.421317</v>
       </c>
     </row>
-    <row r="543" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A543" s="3" t="s">
         <v>791</v>
       </c>
@@ -18127,7 +18126,7 @@
         <v>12.4381301</v>
       </c>
     </row>
-    <row r="544" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A544" s="3" t="s">
         <v>794</v>
       </c>
@@ -18153,7 +18152,7 @@
         <v>12.4460753</v>
       </c>
     </row>
-    <row r="545" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A545" s="3" t="s">
         <v>1033</v>
       </c>
@@ -18179,7 +18178,7 @@
         <v>12.4281592</v>
       </c>
     </row>
-    <row r="546" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A546" s="3" t="s">
         <v>1034</v>
       </c>
@@ -18205,7 +18204,7 @@
         <v>12.436747499999999</v>
       </c>
     </row>
-    <row r="547" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A547" s="3" t="s">
         <v>1035</v>
       </c>
@@ -18231,7 +18230,7 @@
         <v>12.436747499999999</v>
       </c>
     </row>
-    <row r="548" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A548" s="3" t="s">
         <v>1036</v>
       </c>
@@ -18257,7 +18256,7 @@
         <v>12.436747499999999</v>
       </c>
     </row>
-    <row r="549" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A549" s="3" t="s">
         <v>798</v>
       </c>
@@ -18283,7 +18282,7 @@
         <v>12.394792799999999</v>
       </c>
     </row>
-    <row r="550" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A550" s="3" t="s">
         <v>930</v>
       </c>
@@ -18309,7 +18308,7 @@
         <v>12.436747499999999</v>
       </c>
     </row>
-    <row r="551" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A551" s="3" t="s">
         <v>1037</v>
       </c>
@@ -18335,7 +18334,7 @@
         <v>12.4303554</v>
       </c>
     </row>
-    <row r="552" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A552" s="3" t="s">
         <v>983</v>
       </c>
@@ -18361,7 +18360,7 @@
         <v>12.444683899999999</v>
       </c>
     </row>
-    <row r="553" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A553" s="3" t="s">
         <v>1038</v>
       </c>
@@ -18387,7 +18386,7 @@
         <v>12.4303554</v>
       </c>
     </row>
-    <row r="554" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A554" s="3" t="s">
         <v>1039</v>
       </c>
@@ -18413,7 +18412,7 @@
         <v>12.4319752</v>
       </c>
     </row>
-    <row r="555" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A555" s="3" t="s">
         <v>1038</v>
       </c>
@@ -18439,7 +18438,7 @@
         <v>12.4303554</v>
       </c>
     </row>
-    <row r="556" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A556" s="3" t="s">
         <v>729</v>
       </c>
@@ -18465,7 +18464,7 @@
         <v>12.4281592</v>
       </c>
     </row>
-    <row r="557" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A557" s="3" t="s">
         <v>933</v>
       </c>
@@ -18491,7 +18490,7 @@
         <v>12.425168299999999</v>
       </c>
     </row>
-    <row r="558" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A558" s="3" t="s">
         <v>764</v>
       </c>
@@ -18517,7 +18516,7 @@
         <v>12.4290529</v>
       </c>
     </row>
-    <row r="559" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A559" s="3" t="s">
         <v>833</v>
       </c>
@@ -18537,13 +18536,13 @@
         <v>11</v>
       </c>
       <c r="G559">
-        <v>41.859758599999999</v>
+        <v>41.861347899999998</v>
       </c>
       <c r="H559">
-        <v>12.419367100000001</v>
-      </c>
-    </row>
-    <row r="560" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+        <v>12.419210519261711</v>
+      </c>
+    </row>
+    <row r="560" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A560" s="3" t="s">
         <v>833</v>
       </c>
@@ -18563,13 +18562,13 @@
         <v>11</v>
       </c>
       <c r="G560">
-        <v>41.859758599999999</v>
+        <v>41.861347899999998</v>
       </c>
       <c r="H560">
-        <v>12.419367100000001</v>
-      </c>
-    </row>
-    <row r="561" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+        <v>12.419210519261711</v>
+      </c>
+    </row>
+    <row r="561" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A561" s="3" t="s">
         <v>990</v>
       </c>
@@ -18595,7 +18594,7 @@
         <v>12.4131214</v>
       </c>
     </row>
-    <row r="562" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A562" s="3" t="s">
         <v>872</v>
       </c>
@@ -18621,7 +18620,7 @@
         <v>12.4131214</v>
       </c>
     </row>
-    <row r="563" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A563" s="3" t="s">
         <v>992</v>
       </c>
@@ -18647,7 +18646,7 @@
         <v>12.4653882</v>
       </c>
     </row>
-    <row r="564" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A564" s="3" t="s">
         <v>874</v>
       </c>
@@ -18673,7 +18672,7 @@
         <v>12.4653882</v>
       </c>
     </row>
-    <row r="565" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A565" s="3" t="s">
         <v>875</v>
       </c>
@@ -18699,7 +18698,7 @@
         <v>12.414733699999999</v>
       </c>
     </row>
-    <row r="566" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A566" s="3" t="s">
         <v>875</v>
       </c>
@@ -18725,7 +18724,7 @@
         <v>12.414733699999999</v>
       </c>
     </row>
-    <row r="567" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A567" s="3" t="s">
         <v>1027</v>
       </c>
@@ -18751,7 +18750,7 @@
         <v>12.4476464</v>
       </c>
     </row>
-    <row r="568" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A568" s="3" t="s">
         <v>737</v>
       </c>
@@ -18777,7 +18776,7 @@
         <v>12.4139968</v>
       </c>
     </row>
-    <row r="569" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A569" s="3" t="s">
         <v>996</v>
       </c>
@@ -18803,7 +18802,7 @@
         <v>12.4653882</v>
       </c>
     </row>
-    <row r="570" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A570" s="3" t="s">
         <v>679</v>
       </c>
@@ -18829,7 +18828,7 @@
         <v>12.4655162</v>
       </c>
     </row>
-    <row r="571" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A571" s="3" t="s">
         <v>1040</v>
       </c>
@@ -18855,7 +18854,7 @@
         <v>12.450469</v>
       </c>
     </row>
-    <row r="572" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A572" s="3" t="s">
         <v>1040</v>
       </c>
@@ -18881,7 +18880,7 @@
         <v>12.450469</v>
       </c>
     </row>
-    <row r="573" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A573" s="3" t="s">
         <v>939</v>
       </c>
@@ -18907,7 +18906,7 @@
         <v>12.396012000000001</v>
       </c>
     </row>
-    <row r="574" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A574" s="3" t="s">
         <v>909</v>
       </c>
@@ -18933,7 +18932,7 @@
         <v>12.450667899999999</v>
       </c>
     </row>
-    <row r="575" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A575" s="3" t="s">
         <v>682</v>
       </c>
@@ -18959,7 +18958,7 @@
         <v>12.4672248</v>
       </c>
     </row>
-    <row r="576" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A576" s="3" t="s">
         <v>1041</v>
       </c>
@@ -18985,7 +18984,7 @@
         <v>12.4689797</v>
       </c>
     </row>
-    <row r="577" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A577" s="3" t="s">
         <v>781</v>
       </c>
@@ -19037,7 +19036,7 @@
         <v>12.4697491</v>
       </c>
     </row>
-    <row r="579" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A579" s="3" t="s">
         <v>1043</v>
       </c>
@@ -19063,7 +19062,7 @@
         <v>12.4178953</v>
       </c>
     </row>
-    <row r="580" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A580" s="3" t="s">
         <v>946</v>
       </c>
@@ -19089,7 +19088,7 @@
         <v>12.465145700000001</v>
       </c>
     </row>
-    <row r="581" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A581" s="3" t="s">
         <v>1044</v>
       </c>
@@ -19115,7 +19114,7 @@
         <v>12.4653882</v>
       </c>
     </row>
-    <row r="582" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A582" s="3" t="s">
         <v>814</v>
       </c>
@@ -19141,7 +19140,7 @@
         <v>12.4692943</v>
       </c>
     </row>
-    <row r="583" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A583" s="3" t="s">
         <v>1045</v>
       </c>
@@ -19167,7 +19166,7 @@
         <v>12.471541</v>
       </c>
     </row>
-    <row r="584" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A584" s="3" t="s">
         <v>1046</v>
       </c>
@@ -19193,7 +19192,7 @@
         <v>12.470989599999999</v>
       </c>
     </row>
-    <row r="585" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A585" s="3" t="s">
         <v>886</v>
       </c>
@@ -19219,7 +19218,7 @@
         <v>12.472239800000001</v>
       </c>
     </row>
-    <row r="586" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A586" s="3" t="s">
         <v>1047</v>
       </c>
@@ -19271,7 +19270,7 @@
         <v>12.4696275</v>
       </c>
     </row>
-    <row r="588" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A588" s="3" t="s">
         <v>1049</v>
       </c>
@@ -19297,7 +19296,7 @@
         <v>12.4750234</v>
       </c>
     </row>
-    <row r="589" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A589" s="3" t="s">
         <v>1050</v>
       </c>
@@ -19323,7 +19322,7 @@
         <v>12.4655162</v>
       </c>
     </row>
-    <row r="590" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A590" s="3" t="s">
         <v>1051</v>
       </c>
@@ -19349,7 +19348,7 @@
         <v>12.4708924</v>
       </c>
     </row>
-    <row r="591" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A591" s="3" t="s">
         <v>1052</v>
       </c>
@@ -19375,7 +19374,7 @@
         <v>12.4708924</v>
       </c>
     </row>
-    <row r="592" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A592" s="3" t="s">
         <v>888</v>
       </c>
@@ -19401,7 +19400,7 @@
         <v>12.464426700000001</v>
       </c>
     </row>
-    <row r="593" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A593" s="3" t="s">
         <v>1053</v>
       </c>
@@ -19427,7 +19426,7 @@
         <v>12.4720189</v>
       </c>
     </row>
-    <row r="594" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A594" s="3" t="s">
         <v>1054</v>
       </c>
@@ -19453,7 +19452,7 @@
         <v>12.4720189</v>
       </c>
     </row>
-    <row r="595" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A595" s="3" t="s">
         <v>1055</v>
       </c>
@@ -19479,7 +19478,7 @@
         <v>12.4720189</v>
       </c>
     </row>
-    <row r="596" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A596" s="3" t="s">
         <v>1056</v>
       </c>
@@ -19505,7 +19504,7 @@
         <v>12.470387300000001</v>
       </c>
     </row>
-    <row r="597" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A597" s="3" t="s">
         <v>1057</v>
       </c>
@@ -19557,7 +19556,7 @@
         <v>12.468882199999999</v>
       </c>
     </row>
-    <row r="599" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A599" s="3" t="s">
         <v>1050</v>
       </c>
@@ -19583,7 +19582,7 @@
         <v>12.4655162</v>
       </c>
     </row>
-    <row r="600" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A600" s="3" t="s">
         <v>1059</v>
       </c>
@@ -19609,7 +19608,7 @@
         <v>12.464426700000001</v>
       </c>
     </row>
-    <row r="601" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A601" s="3" t="s">
         <v>949</v>
       </c>
@@ -19635,7 +19634,7 @@
         <v>12.4679225</v>
       </c>
     </row>
-    <row r="602" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A602" s="3" t="s">
         <v>952</v>
       </c>
@@ -19661,7 +19660,7 @@
         <v>12.4679225</v>
       </c>
     </row>
-    <row r="603" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A603" s="3" t="s">
         <v>829</v>
       </c>
@@ -19713,7 +19712,7 @@
         <v>12.467750300000001</v>
       </c>
     </row>
-    <row r="605" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A605" s="3" t="s">
         <v>1061</v>
       </c>
@@ -19739,7 +19738,7 @@
         <v>12.4672248</v>
       </c>
     </row>
-    <row r="606" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A606" s="3" t="s">
         <v>954</v>
       </c>
@@ -19765,7 +19764,7 @@
         <v>12.425168299999999</v>
       </c>
     </row>
-    <row r="607" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A607" s="3" t="s">
         <v>1062</v>
       </c>
@@ -19791,7 +19790,7 @@
         <v>12.4290529</v>
       </c>
     </row>
-    <row r="608" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A608" s="3" t="s">
         <v>1017</v>
       </c>
@@ -19817,7 +19816,7 @@
         <v>12.455799900000001</v>
       </c>
     </row>
-    <row r="609" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A609" s="3" t="s">
         <v>1063</v>
       </c>
@@ -19843,7 +19842,7 @@
         <v>12.472901780000001</v>
       </c>
     </row>
-    <row r="610" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A610" s="3" t="s">
         <v>1018</v>
       </c>
@@ -19869,7 +19868,7 @@
         <v>12.458497100000001</v>
       </c>
     </row>
-    <row r="611" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A611" s="3" t="s">
         <v>1019</v>
       </c>
@@ -19895,7 +19894,7 @@
         <v>12.452281899999999</v>
       </c>
     </row>
-    <row r="612" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A612" s="3" t="s">
         <v>1064</v>
       </c>
@@ -19921,7 +19920,7 @@
         <v>12.4572786</v>
       </c>
     </row>
-    <row r="613" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A613" s="3" t="s">
         <v>695</v>
       </c>
@@ -19947,7 +19946,7 @@
         <v>12.452281899999999</v>
       </c>
     </row>
-    <row r="614" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A614" s="3" t="s">
         <v>691</v>
       </c>
@@ -19973,7 +19972,7 @@
         <v>12.4548323</v>
       </c>
     </row>
-    <row r="615" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A615" s="3" t="s">
         <v>697</v>
       </c>
@@ -19999,7 +19998,7 @@
         <v>12.4615081</v>
       </c>
     </row>
-    <row r="616" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A616" s="3" t="s">
         <v>1065</v>
       </c>
@@ -20025,7 +20024,7 @@
         <v>12.4538505</v>
       </c>
     </row>
-    <row r="617" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A617" s="3" t="s">
         <v>1066</v>
       </c>
@@ -20051,7 +20050,7 @@
         <v>12.4627888</v>
       </c>
     </row>
-    <row r="618" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A618" s="3" t="s">
         <v>1067</v>
       </c>
@@ -20077,7 +20076,7 @@
         <v>12.452030199999999</v>
       </c>
     </row>
-    <row r="619" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A619" s="3" t="s">
         <v>1067</v>
       </c>
@@ -20103,7 +20102,7 @@
         <v>12.452030199999999</v>
       </c>
     </row>
-    <row r="620" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A620" s="3" t="s">
         <v>1068</v>
       </c>
@@ -20129,7 +20128,7 @@
         <v>12.4653882</v>
       </c>
     </row>
-    <row r="621" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A621" s="3" t="s">
         <v>1069</v>
       </c>
@@ -20155,7 +20154,7 @@
         <v>12.462877300000001</v>
       </c>
     </row>
-    <row r="622" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A622" s="3" t="s">
         <v>780</v>
       </c>
@@ -20181,7 +20180,7 @@
         <v>12.452363</v>
       </c>
     </row>
-    <row r="623" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A623" s="3" t="s">
         <v>788</v>
       </c>
@@ -20207,7 +20206,7 @@
         <v>12.4611974</v>
       </c>
     </row>
-    <row r="624" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A624" s="3" t="s">
         <v>790</v>
       </c>
@@ -20233,7 +20232,7 @@
         <v>12.394792799999999</v>
       </c>
     </row>
-    <row r="625" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A625" s="3" t="s">
         <v>1070</v>
       </c>
@@ -20259,7 +20258,7 @@
         <v>12.394792799999999</v>
       </c>
     </row>
-    <row r="626" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A626" s="3" t="s">
         <v>919</v>
       </c>
@@ -20285,7 +20284,7 @@
         <v>12.394792799999999</v>
       </c>
     </row>
-    <row r="627" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A627" s="3" t="s">
         <v>975</v>
       </c>
@@ -20311,7 +20310,7 @@
         <v>12.394792799999999</v>
       </c>
     </row>
-    <row r="628" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A628" s="3" t="s">
         <v>920</v>
       </c>
@@ -20337,7 +20336,7 @@
         <v>12.456374800000001</v>
       </c>
     </row>
-    <row r="629" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A629" s="3" t="s">
         <v>980</v>
       </c>
@@ -20363,7 +20362,7 @@
         <v>12.440671</v>
       </c>
     </row>
-    <row r="630" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A630" s="3" t="s">
         <v>1071</v>
       </c>
@@ -20389,7 +20388,7 @@
         <v>12.425168299999999</v>
       </c>
     </row>
-    <row r="631" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A631" s="3" t="s">
         <v>942</v>
       </c>
@@ -20415,7 +20414,7 @@
         <v>12.4381301</v>
       </c>
     </row>
-    <row r="632" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A632" s="3" t="s">
         <v>1072</v>
       </c>
@@ -20441,7 +20440,7 @@
         <v>12.4262792</v>
       </c>
     </row>
-    <row r="633" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A633" s="3" t="s">
         <v>720</v>
       </c>
@@ -20467,7 +20466,7 @@
         <v>12.436747499999999</v>
       </c>
     </row>
-    <row r="634" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A634" s="3" t="s">
         <v>1073</v>
       </c>
@@ -20493,7 +20492,7 @@
         <v>12.4319752</v>
       </c>
     </row>
-    <row r="635" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A635" s="3" t="s">
         <v>864</v>
       </c>
@@ -20519,7 +20518,7 @@
         <v>12.433839799999999</v>
       </c>
     </row>
-    <row r="636" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A636" s="3" t="s">
         <v>1074</v>
       </c>
@@ -20545,7 +20544,7 @@
         <v>12.4382193</v>
       </c>
     </row>
-    <row r="637" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A637" s="3" t="s">
         <v>860</v>
       </c>
@@ -20571,7 +20570,7 @@
         <v>12.436747499999999</v>
       </c>
     </row>
-    <row r="638" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A638" s="3" t="s">
         <v>1033</v>
       </c>
@@ -20597,7 +20596,7 @@
         <v>12.4281592</v>
       </c>
     </row>
-    <row r="639" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A639" s="3" t="s">
         <v>1075</v>
       </c>
@@ -20623,7 +20622,7 @@
         <v>12.4276889</v>
       </c>
     </row>
-    <row r="640" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A640" s="3" t="s">
         <v>797</v>
       </c>
@@ -20649,7 +20648,7 @@
         <v>12.441648199999999</v>
       </c>
     </row>
-    <row r="641" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A641" s="3" t="s">
         <v>1036</v>
       </c>
@@ -20675,7 +20674,7 @@
         <v>12.436747499999999</v>
       </c>
     </row>
-    <row r="642" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A642" s="3" t="s">
         <v>726</v>
       </c>
@@ -20701,7 +20700,7 @@
         <v>12.444683899999999</v>
       </c>
     </row>
-    <row r="643" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A643" s="3" t="s">
         <v>1037</v>
       </c>
@@ -20727,7 +20726,7 @@
         <v>12.4303554</v>
       </c>
     </row>
-    <row r="644" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A644" s="3" t="s">
         <v>730</v>
       </c>
@@ -20753,7 +20752,7 @@
         <v>12.4281592</v>
       </c>
     </row>
-    <row r="645" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A645" s="3" t="s">
         <v>953</v>
       </c>
@@ -20779,7 +20778,7 @@
         <v>12.422466399999999</v>
       </c>
     </row>
-    <row r="646" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A646" s="3" t="s">
         <v>1076</v>
       </c>
@@ -20805,7 +20804,7 @@
         <v>12.4653882</v>
       </c>
     </row>
-    <row r="647" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A647" s="3" t="s">
         <v>804</v>
       </c>
@@ -20825,13 +20824,13 @@
         <v>11</v>
       </c>
       <c r="G647">
-        <v>41.859758599999999</v>
+        <v>41.8561707</v>
       </c>
       <c r="H647">
-        <v>12.419367100000001</v>
-      </c>
-    </row>
-    <row r="648" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+        <v>12.419950699999999</v>
+      </c>
+    </row>
+    <row r="648" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A648" s="3" t="s">
         <v>804</v>
       </c>
@@ -20851,13 +20850,13 @@
         <v>11</v>
       </c>
       <c r="G648">
-        <v>41.859758599999999</v>
+        <v>41.8561707</v>
       </c>
       <c r="H648">
-        <v>12.419367100000001</v>
-      </c>
-    </row>
-    <row r="649" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+        <v>12.419950699999999</v>
+      </c>
+    </row>
+    <row r="649" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A649" s="3" t="s">
         <v>803</v>
       </c>
@@ -20883,7 +20882,7 @@
         <v>12.4178953</v>
       </c>
     </row>
-    <row r="650" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A650" s="3" t="s">
         <v>1077</v>
       </c>
@@ -20909,7 +20908,7 @@
         <v>12.414733699999999</v>
       </c>
     </row>
-    <row r="651" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A651" s="3" t="s">
         <v>1012</v>
       </c>
@@ -20935,7 +20934,7 @@
         <v>12.422466399999999</v>
       </c>
     </row>
-    <row r="652" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="652" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A652" s="3" t="s">
         <v>1078</v>
       </c>
@@ -20961,7 +20960,7 @@
         <v>12.4653882</v>
       </c>
     </row>
-    <row r="653" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A653" s="3" t="s">
         <v>734</v>
       </c>
@@ -20987,7 +20986,7 @@
         <v>12.4131214</v>
       </c>
     </row>
-    <row r="654" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A654" s="3" t="s">
         <v>1079</v>
       </c>
@@ -21013,7 +21012,7 @@
         <v>12.433839799999999</v>
       </c>
     </row>
-    <row r="655" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A655" s="3" t="s">
         <v>1016</v>
       </c>
@@ -21039,7 +21038,7 @@
         <v>12.414733699999999</v>
       </c>
     </row>
-    <row r="656" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A656" s="3" t="s">
         <v>1016</v>
       </c>
@@ -21065,7 +21064,7 @@
         <v>12.414733699999999</v>
       </c>
     </row>
-    <row r="657" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A657" s="3" t="s">
         <v>993</v>
       </c>
@@ -21091,7 +21090,7 @@
         <v>12.4131214</v>
       </c>
     </row>
-    <row r="658" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A658" s="3" t="s">
         <v>737</v>
       </c>
@@ -21117,7 +21116,7 @@
         <v>12.4139968</v>
       </c>
     </row>
-    <row r="659" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="659" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A659" s="3" t="s">
         <v>1080</v>
       </c>
@@ -21143,7 +21142,7 @@
         <v>12.441648199999999</v>
       </c>
     </row>
-    <row r="660" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A660" s="3" t="s">
         <v>1081</v>
       </c>
@@ -21169,7 +21168,7 @@
         <v>12.4653882</v>
       </c>
     </row>
-    <row r="661" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="661" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A661" s="3" t="s">
         <v>741</v>
       </c>
@@ -21195,7 +21194,7 @@
         <v>12.4634237</v>
       </c>
     </row>
-    <row r="662" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="662" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A662" s="3" t="s">
         <v>881</v>
       </c>
@@ -21221,7 +21220,7 @@
         <v>12.470989599999999</v>
       </c>
     </row>
-    <row r="663" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="663" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A663" s="3" t="s">
         <v>1082</v>
       </c>
@@ -21247,7 +21246,7 @@
         <v>12.3987549</v>
       </c>
     </row>
-    <row r="664" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="664" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A664" s="3" t="s">
         <v>1082</v>
       </c>
@@ -21273,7 +21272,7 @@
         <v>12.3987549</v>
       </c>
     </row>
-    <row r="665" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="665" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A665" s="3" t="s">
         <v>1083</v>
       </c>
@@ -21299,7 +21298,7 @@
         <v>12.451320600000001</v>
       </c>
     </row>
-    <row r="666" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="666" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A666" s="3" t="s">
         <v>998</v>
       </c>
@@ -21325,7 +21324,7 @@
         <v>12.394792799999999</v>
       </c>
     </row>
-    <row r="667" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="667" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A667" s="3" t="s">
         <v>1084</v>
       </c>
@@ -21351,7 +21350,7 @@
         <v>12.458959200000001</v>
       </c>
     </row>
-    <row r="668" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="668" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A668" s="3" t="s">
         <v>1085</v>
       </c>
@@ -21377,7 +21376,7 @@
         <v>12.4281592</v>
       </c>
     </row>
-    <row r="669" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="669" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A669" s="3" t="s">
         <v>1086</v>
       </c>
@@ -21403,7 +21402,7 @@
         <v>12.449409299999999</v>
       </c>
     </row>
-    <row r="670" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="670" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A670" s="3" t="s">
         <v>742</v>
       </c>
@@ -21429,7 +21428,7 @@
         <v>12.4457421</v>
       </c>
     </row>
-    <row r="671" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="671" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A671" s="3" t="s">
         <v>1087</v>
       </c>
@@ -21455,7 +21454,7 @@
         <v>12.417792800000001</v>
       </c>
     </row>
-    <row r="672" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="672" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A672" s="3" t="s">
         <v>708</v>
       </c>
@@ -21481,7 +21480,7 @@
         <v>12.452703</v>
       </c>
     </row>
-    <row r="673" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="673" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A673" s="3" t="s">
         <v>1051</v>
       </c>
@@ -21507,7 +21506,7 @@
         <v>12.4708924</v>
       </c>
     </row>
-    <row r="674" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="674" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A674" s="3" t="s">
         <v>1088</v>
       </c>
@@ -21533,7 +21532,7 @@
         <v>12.4653882</v>
       </c>
     </row>
-    <row r="675" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="675" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A675" s="3" t="s">
         <v>1045</v>
       </c>
@@ -21559,7 +21558,7 @@
         <v>12.471541</v>
       </c>
     </row>
-    <row r="676" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="676" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A676" s="3" t="s">
         <v>1084</v>
       </c>
@@ -21585,7 +21584,7 @@
         <v>12.458959200000001</v>
       </c>
     </row>
-    <row r="677" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="677" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A677" s="3" t="s">
         <v>1089</v>
       </c>
@@ -21637,7 +21636,7 @@
         <v>12.4683993</v>
       </c>
     </row>
-    <row r="679" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="679" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A679" s="3" t="s">
         <v>1091</v>
       </c>
@@ -21663,7 +21662,7 @@
         <v>12.4715598</v>
       </c>
     </row>
-    <row r="680" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="680" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A680" s="3" t="s">
         <v>1092</v>
       </c>
@@ -21689,7 +21688,7 @@
         <v>12.465145700000001</v>
       </c>
     </row>
-    <row r="681" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="681" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A681" s="3" t="s">
         <v>1053</v>
       </c>
@@ -21715,7 +21714,7 @@
         <v>12.4720189</v>
       </c>
     </row>
-    <row r="682" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="682" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A682" s="3" t="s">
         <v>1093</v>
       </c>
@@ -21741,7 +21740,7 @@
         <v>12.470048</v>
       </c>
     </row>
-    <row r="683" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="683" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A683" s="3" t="s">
         <v>754</v>
       </c>
@@ -21767,7 +21766,7 @@
         <v>12.4655162</v>
       </c>
     </row>
-    <row r="684" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="684" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A684" s="3" t="s">
         <v>1094</v>
       </c>
@@ -21793,7 +21792,7 @@
         <v>12.471681</v>
       </c>
     </row>
-    <row r="685" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="685" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A685" s="3" t="s">
         <v>1095</v>
       </c>
@@ -21819,7 +21818,7 @@
         <v>12.464426700000001</v>
       </c>
     </row>
-    <row r="686" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="686" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A686" s="3" t="s">
         <v>949</v>
       </c>
@@ -21845,7 +21844,7 @@
         <v>12.4679225</v>
       </c>
     </row>
-    <row r="687" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="687" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A687" s="3" t="s">
         <v>1011</v>
       </c>
@@ -21871,7 +21870,7 @@
         <v>12.464426700000001</v>
       </c>
     </row>
-    <row r="688" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="688" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A688" s="3" t="s">
         <v>761</v>
       </c>
@@ -21897,7 +21896,7 @@
         <v>12.4672248</v>
       </c>
     </row>
-    <row r="689" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="689" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A689" s="3" t="s">
         <v>1096</v>
       </c>
@@ -21923,7 +21922,7 @@
         <v>12.44165317</v>
       </c>
     </row>
-    <row r="690" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="690" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A690" s="3" t="s">
         <v>1097</v>
       </c>
@@ -21949,7 +21948,7 @@
         <v>12.4285136</v>
       </c>
     </row>
-    <row r="691" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="691" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A691" s="3" t="s">
         <v>1097</v>
       </c>
@@ -21975,7 +21974,7 @@
         <v>12.4285136</v>
       </c>
     </row>
-    <row r="692" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="692" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A692" s="3" t="s">
         <v>688</v>
       </c>
@@ -22001,7 +22000,7 @@
         <v>12.4653882</v>
       </c>
     </row>
-    <row r="693" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="693" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A693" s="3" t="s">
         <v>1098</v>
       </c>
@@ -22027,7 +22026,7 @@
         <v>12.434444600000001</v>
       </c>
     </row>
-    <row r="694" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="694" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A694" s="3" t="s">
         <v>1099</v>
       </c>
@@ -22047,13 +22046,13 @@
         <v>11</v>
       </c>
       <c r="G694">
-        <v>41.859758599999999</v>
+        <v>41.852729400000001</v>
       </c>
       <c r="H694">
-        <v>12.419367100000001</v>
-      </c>
-    </row>
-    <row r="695" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+        <v>12.4215442</v>
+      </c>
+    </row>
+    <row r="695" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A695" s="3" t="s">
         <v>1099</v>
       </c>
@@ -22073,13 +22072,13 @@
         <v>11</v>
       </c>
       <c r="G695">
-        <v>41.859758599999999</v>
+        <v>41.852729400000001</v>
       </c>
       <c r="H695">
-        <v>12.419367100000001</v>
-      </c>
-    </row>
-    <row r="696" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+        <v>12.4215442</v>
+      </c>
+    </row>
+    <row r="696" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A696" s="3" t="s">
         <v>1100</v>
       </c>
@@ -22105,7 +22104,7 @@
         <v>12.452554900000001</v>
       </c>
     </row>
-    <row r="697" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="697" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A697" s="3" t="s">
         <v>840</v>
       </c>
@@ -22131,7 +22130,7 @@
         <v>12.459636400000001</v>
       </c>
     </row>
-    <row r="698" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="698" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A698" s="3" t="s">
         <v>841</v>
       </c>
@@ -22157,7 +22156,7 @@
         <v>12.455799900000001</v>
       </c>
     </row>
-    <row r="699" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="699" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A699" s="3" t="s">
         <v>1101</v>
       </c>
@@ -22183,7 +22182,7 @@
         <v>12.4583496</v>
       </c>
     </row>
-    <row r="700" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="700" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A700" s="3" t="s">
         <v>1101</v>
       </c>
@@ -22209,7 +22208,7 @@
         <v>12.4583496</v>
       </c>
     </row>
-    <row r="701" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="701" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A701" s="3" t="s">
         <v>1102</v>
       </c>
@@ -22235,7 +22234,7 @@
         <v>12.4653882</v>
       </c>
     </row>
-    <row r="702" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="702" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A702" s="3" t="s">
         <v>1103</v>
       </c>
@@ -22261,7 +22260,7 @@
         <v>12.4544304</v>
       </c>
     </row>
-    <row r="703" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="703" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A703" s="3" t="s">
         <v>849</v>
       </c>
@@ -22287,7 +22286,7 @@
         <v>12.450667899999999</v>
       </c>
     </row>
-    <row r="704" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="704" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A704" s="3" t="s">
         <v>1102</v>
       </c>
@@ -22313,7 +22312,7 @@
         <v>12.4653882</v>
       </c>
     </row>
-    <row r="705" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="705" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A705" s="3" t="s">
         <v>1104</v>
       </c>
@@ -22339,7 +22338,7 @@
         <v>12.452030199999999</v>
       </c>
     </row>
-    <row r="706" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="706" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A706" s="3" t="s">
         <v>1105</v>
       </c>
@@ -22365,7 +22364,7 @@
         <v>12.4476464</v>
       </c>
     </row>
-    <row r="707" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="707" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A707" s="3" t="s">
         <v>1106</v>
       </c>
@@ -22391,7 +22390,7 @@
         <v>12.455242200000001</v>
       </c>
     </row>
-    <row r="708" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="708" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A708" s="3" t="s">
         <v>1068</v>
       </c>
@@ -22417,7 +22416,7 @@
         <v>12.4653882</v>
       </c>
     </row>
-    <row r="709" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="709" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A709" s="3" t="s">
         <v>1107</v>
       </c>
@@ -22443,7 +22442,7 @@
         <v>12.4485481</v>
       </c>
     </row>
-    <row r="710" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="710" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A710" s="3" t="s">
         <v>1108</v>
       </c>
@@ -22469,7 +22468,7 @@
         <v>12.462877300000001</v>
       </c>
     </row>
-    <row r="711" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="711" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A711" s="3" t="s">
         <v>913</v>
       </c>
@@ -22495,7 +22494,7 @@
         <v>12.449355799999999</v>
       </c>
     </row>
-    <row r="712" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="712" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A712" s="3" t="s">
         <v>780</v>
       </c>
@@ -22521,7 +22520,7 @@
         <v>12.452363</v>
       </c>
     </row>
-    <row r="713" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="713" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A713" s="3" t="s">
         <v>1109</v>
       </c>
@@ -22547,7 +22546,7 @@
         <v>12.4461976</v>
       </c>
     </row>
-    <row r="714" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="714" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A714" s="3" t="s">
         <v>1110</v>
       </c>
@@ -22573,7 +22572,7 @@
         <v>12.4461976</v>
       </c>
     </row>
-    <row r="715" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="715" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A715" s="3" t="s">
         <v>1111</v>
       </c>
@@ -22599,7 +22598,7 @@
         <v>12.450601900000001</v>
       </c>
     </row>
-    <row r="716" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="716" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A716" s="3" t="s">
         <v>1112</v>
       </c>
@@ -22625,7 +22624,7 @@
         <v>12.450601900000001</v>
       </c>
     </row>
-    <row r="717" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="717" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A717" s="3" t="s">
         <v>785</v>
       </c>
@@ -22651,7 +22650,7 @@
         <v>12.457798500000001</v>
       </c>
     </row>
-    <row r="718" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="718" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A718" s="3" t="s">
         <v>968</v>
       </c>
@@ -22677,7 +22676,7 @@
         <v>12.463433999999999</v>
       </c>
     </row>
-    <row r="719" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="719" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A719" s="3" t="s">
         <v>1113</v>
       </c>
@@ -22703,7 +22702,7 @@
         <v>12.394792799999999</v>
       </c>
     </row>
-    <row r="720" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="720" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A720" s="3" t="s">
         <v>1114</v>
       </c>
@@ -22729,7 +22728,7 @@
         <v>12.394792799999999</v>
       </c>
     </row>
-    <row r="721" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="721" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A721" s="3" t="s">
         <v>1114</v>
       </c>
@@ -22755,7 +22754,7 @@
         <v>12.394792799999999</v>
       </c>
     </row>
-    <row r="722" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="722" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A722" s="3" t="s">
         <v>1115</v>
       </c>
@@ -22781,7 +22780,7 @@
         <v>12.394792799999999</v>
       </c>
     </row>
-    <row r="723" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="723" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A723" s="3" t="s">
         <v>1116</v>
       </c>
@@ -22807,7 +22806,7 @@
         <v>12.394792799999999</v>
       </c>
     </row>
-    <row r="724" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="724" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A724" s="3" t="s">
         <v>1117</v>
       </c>
@@ -22833,7 +22832,7 @@
         <v>12.394792799999999</v>
       </c>
     </row>
-    <row r="725" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="725" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A725" s="3" t="s">
         <v>1118</v>
       </c>
@@ -22859,7 +22858,7 @@
         <v>12.461631799999999</v>
       </c>
     </row>
-    <row r="726" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="726" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A726" s="3" t="s">
         <v>1032</v>
       </c>
@@ -22885,7 +22884,7 @@
         <v>12.4457421</v>
       </c>
     </row>
-    <row r="727" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="727" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A727" s="3" t="s">
         <v>923</v>
       </c>
@@ -22905,13 +22904,13 @@
         <v>11</v>
       </c>
       <c r="G727">
-        <v>41.859758599999999</v>
+        <v>41.853969999999997</v>
       </c>
       <c r="H727">
-        <v>12.419367100000001</v>
-      </c>
-    </row>
-    <row r="728" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+        <v>12.42042</v>
+      </c>
+    </row>
+    <row r="728" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A728" s="3" t="s">
         <v>1119</v>
       </c>
@@ -22937,7 +22936,7 @@
         <v>12.421317</v>
       </c>
     </row>
-    <row r="729" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="729" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A729" s="3" t="s">
         <v>1119</v>
       </c>
@@ -22963,7 +22962,7 @@
         <v>12.421317</v>
       </c>
     </row>
-    <row r="730" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="730" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A730" s="3" t="s">
         <v>913</v>
       </c>
@@ -22989,7 +22988,7 @@
         <v>12.449355799999999</v>
       </c>
     </row>
-    <row r="731" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="731" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A731" s="3" t="s">
         <v>1120</v>
       </c>
@@ -23015,7 +23014,7 @@
         <v>12.4262792</v>
       </c>
     </row>
-    <row r="732" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="732" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A732" s="3" t="s">
         <v>721</v>
       </c>
@@ -23041,7 +23040,7 @@
         <v>12.4382193</v>
       </c>
     </row>
-    <row r="733" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="733" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A733" s="3" t="s">
         <v>1121</v>
       </c>
@@ -23067,7 +23066,7 @@
         <v>12.4319752</v>
       </c>
     </row>
-    <row r="734" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="734" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A734" s="3" t="s">
         <v>1122</v>
       </c>
@@ -23093,7 +23092,7 @@
         <v>12.4276889</v>
       </c>
     </row>
-    <row r="735" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="735" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A735" s="3" t="s">
         <v>929</v>
       </c>
@@ -23119,7 +23118,7 @@
         <v>12.440671</v>
       </c>
     </row>
-    <row r="736" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="736" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A736" s="3" t="s">
         <v>1123</v>
       </c>
@@ -23145,7 +23144,7 @@
         <v>12.441648199999999</v>
       </c>
     </row>
-    <row r="737" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="737" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A737" s="3" t="s">
         <v>862</v>
       </c>
@@ -23171,7 +23170,7 @@
         <v>12.4382193</v>
       </c>
     </row>
-    <row r="738" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="738" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A738" s="3" t="s">
         <v>1037</v>
       </c>
@@ -23197,7 +23196,7 @@
         <v>12.4303554</v>
       </c>
     </row>
-    <row r="739" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="739" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A739" s="3" t="s">
         <v>985</v>
       </c>
@@ -23223,7 +23222,7 @@
         <v>12.4382193</v>
       </c>
     </row>
-    <row r="740" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="740" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A740" s="3" t="s">
         <v>1124</v>
       </c>
@@ -23249,7 +23248,7 @@
         <v>12.436747499999999</v>
       </c>
     </row>
-    <row r="741" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="741" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A741" s="3" t="s">
         <v>1125</v>
       </c>
@@ -23275,7 +23274,7 @@
         <v>12.4281592</v>
       </c>
     </row>
-    <row r="742" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="742" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A742" s="3" t="s">
         <v>870</v>
       </c>
@@ -23295,13 +23294,13 @@
         <v>11</v>
       </c>
       <c r="G742">
-        <v>41.859758599999999</v>
+        <v>41.859562699999998</v>
       </c>
       <c r="H742">
-        <v>12.419367100000001</v>
-      </c>
-    </row>
-    <row r="743" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+        <v>12.419344199999999</v>
+      </c>
+    </row>
+    <row r="743" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A743" s="3" t="s">
         <v>870</v>
       </c>
@@ -23321,13 +23320,13 @@
         <v>11</v>
       </c>
       <c r="G743">
-        <v>41.859758599999999</v>
+        <v>41.859562699999998</v>
       </c>
       <c r="H743">
-        <v>12.419367100000001</v>
-      </c>
-    </row>
-    <row r="744" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+        <v>12.419344199999999</v>
+      </c>
+    </row>
+    <row r="744" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A744" s="3" t="s">
         <v>1126</v>
       </c>
@@ -23353,7 +23352,7 @@
         <v>12.417929900000001</v>
       </c>
     </row>
-    <row r="745" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="745" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A745" s="3" t="s">
         <v>1127</v>
       </c>
@@ -23373,13 +23372,13 @@
         <v>11</v>
       </c>
       <c r="G745">
-        <v>41.859758599999999</v>
+        <v>41.86428356923934</v>
       </c>
       <c r="H745">
-        <v>12.419367100000001</v>
-      </c>
-    </row>
-    <row r="746" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+        <v>12.422295045631159</v>
+      </c>
+    </row>
+    <row r="746" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A746" s="3" t="s">
         <v>1127</v>
       </c>
@@ -23399,13 +23398,13 @@
         <v>11</v>
       </c>
       <c r="G746">
-        <v>41.859758599999999</v>
+        <v>41.86428356923934</v>
       </c>
       <c r="H746">
-        <v>12.419367100000001</v>
-      </c>
-    </row>
-    <row r="747" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+        <v>12.422295045631159</v>
+      </c>
+    </row>
+    <row r="747" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A747" s="3" t="s">
         <v>1128</v>
       </c>
@@ -23431,7 +23430,7 @@
         <v>12.4653882</v>
       </c>
     </row>
-    <row r="748" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="748" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A748" s="3" t="s">
         <v>1012</v>
       </c>
@@ -23457,7 +23456,7 @@
         <v>12.422466399999999</v>
       </c>
     </row>
-    <row r="749" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="749" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A749" s="3" t="s">
         <v>831</v>
       </c>
@@ -23483,7 +23482,7 @@
         <v>12.434444600000001</v>
       </c>
     </row>
-    <row r="750" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="750" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A750" s="3" t="s">
         <v>1129</v>
       </c>
@@ -23509,7 +23508,7 @@
         <v>12.4143522</v>
       </c>
     </row>
-    <row r="751" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="751" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A751" s="3" t="s">
         <v>1129</v>
       </c>
@@ -23535,7 +23534,7 @@
         <v>12.4143522</v>
       </c>
     </row>
-    <row r="752" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="752" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A752" s="3" t="s">
         <v>1077</v>
       </c>
@@ -23561,7 +23560,7 @@
         <v>12.414733699999999</v>
       </c>
     </row>
-    <row r="753" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="753" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A753" s="3" t="s">
         <v>735</v>
       </c>
@@ -23587,7 +23586,7 @@
         <v>12.4131214</v>
       </c>
     </row>
-    <row r="754" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="754" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A754" s="3" t="s">
         <v>1130</v>
       </c>
@@ -23613,7 +23612,7 @@
         <v>12.381682899999999</v>
       </c>
     </row>
-    <row r="755" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="755" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A755" s="3" t="s">
         <v>1077</v>
       </c>
@@ -23639,7 +23638,7 @@
         <v>12.414733699999999</v>
       </c>
     </row>
-    <row r="756" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="756" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A756" s="3" t="s">
         <v>990</v>
       </c>
@@ -23665,7 +23664,7 @@
         <v>12.4131214</v>
       </c>
     </row>
-    <row r="757" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="757" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A757" s="3" t="s">
         <v>1131</v>
       </c>
@@ -23691,7 +23690,7 @@
         <v>12.4653882</v>
       </c>
     </row>
-    <row r="758" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="758" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A758" s="3" t="s">
         <v>734</v>
       </c>
@@ -23743,7 +23742,7 @@
         <v>12.4687611</v>
       </c>
     </row>
-    <row r="760" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="760" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A760" s="3" t="s">
         <v>686</v>
       </c>
@@ -23763,13 +23762,13 @@
         <v>11</v>
       </c>
       <c r="G760">
-        <v>41.859758599999999</v>
+        <v>41.85324</v>
       </c>
       <c r="H760">
-        <v>12.419367100000001</v>
-      </c>
-    </row>
-    <row r="761" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+        <v>12.421060000000001</v>
+      </c>
+    </row>
+    <row r="761" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A761" s="3" t="s">
         <v>686</v>
       </c>
@@ -23789,13 +23788,13 @@
         <v>11</v>
       </c>
       <c r="G761">
-        <v>41.859758599999999</v>
+        <v>41.85324</v>
       </c>
       <c r="H761">
-        <v>12.419367100000001</v>
-      </c>
-    </row>
-    <row r="762" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+        <v>12.421060000000001</v>
+      </c>
+    </row>
+    <row r="762" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A762" s="3" t="s">
         <v>1124</v>
       </c>
@@ -23821,7 +23820,7 @@
         <v>12.436747499999999</v>
       </c>
     </row>
-    <row r="763" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="763" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A763" s="3" t="s">
         <v>739</v>
       </c>
@@ -23847,7 +23846,7 @@
         <v>12.3935312</v>
       </c>
     </row>
-    <row r="764" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="764" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A764" s="3" t="s">
         <v>1132</v>
       </c>
@@ -23873,7 +23872,7 @@
         <v>12.394792799999999</v>
       </c>
     </row>
-    <row r="765" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="765" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A765" s="3" t="s">
         <v>1133</v>
       </c>
@@ -23899,7 +23898,7 @@
         <v>12.450469</v>
       </c>
     </row>
-    <row r="766" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="766" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A766" s="3" t="s">
         <v>1041</v>
       </c>
@@ -23925,7 +23924,7 @@
         <v>12.4689797</v>
       </c>
     </row>
-    <row r="767" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="767" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A767" s="3" t="s">
         <v>1134</v>
       </c>
@@ -23951,7 +23950,7 @@
         <v>12.467973499999999</v>
       </c>
     </row>
-    <row r="768" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="768" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A768" s="3" t="s">
         <v>1091</v>
       </c>
@@ -23977,7 +23976,7 @@
         <v>12.4715598</v>
       </c>
     </row>
-    <row r="769" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="769" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A769" s="3" t="s">
         <v>1135</v>
       </c>
@@ -24003,7 +24002,7 @@
         <v>12.4715598</v>
       </c>
     </row>
-    <row r="770" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="770" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A770" s="3" t="s">
         <v>1136</v>
       </c>
@@ -24029,7 +24028,7 @@
         <v>12.465145700000001</v>
       </c>
     </row>
-    <row r="771" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="771" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A771" s="3" t="s">
         <v>1137</v>
       </c>
@@ -24055,7 +24054,7 @@
         <v>12.472185700000001</v>
       </c>
     </row>
-    <row r="772" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="772" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A772" s="3" t="s">
         <v>1054</v>
       </c>
@@ -24081,7 +24080,7 @@
         <v>12.4720189</v>
       </c>
     </row>
-    <row r="773" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="773" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A773" s="3" t="s">
         <v>820</v>
       </c>
@@ -24107,7 +24106,7 @@
         <v>12.467973499999999</v>
       </c>
     </row>
-    <row r="774" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="774" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A774" s="3" t="s">
         <v>1138</v>
       </c>
@@ -24133,7 +24132,7 @@
         <v>12.465842200000001</v>
       </c>
     </row>
-    <row r="775" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="775" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A775" s="3" t="s">
         <v>748</v>
       </c>
@@ -24159,7 +24158,7 @@
         <v>12.4665342</v>
       </c>
     </row>
-    <row r="776" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="776" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A776" s="3" t="s">
         <v>1139</v>
       </c>
@@ -24185,7 +24184,7 @@
         <v>12.472185700000001</v>
       </c>
     </row>
-    <row r="777" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="777" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A777" s="3" t="s">
         <v>1009</v>
       </c>
@@ -24211,7 +24210,7 @@
         <v>12.464426700000001</v>
       </c>
     </row>
-    <row r="778" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="778" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A778" s="3" t="s">
         <v>1140</v>
       </c>
@@ -24289,7 +24288,7 @@
         <v>12.4698191</v>
       </c>
     </row>
-    <row r="781" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="781" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A781" s="3" t="s">
         <v>1140</v>
       </c>
@@ -24367,7 +24366,7 @@
         <v>12.468430700000001</v>
       </c>
     </row>
-    <row r="784" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="784" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A784" s="3" t="s">
         <v>1145</v>
       </c>
@@ -24393,7 +24392,7 @@
         <v>12.464426700000001</v>
       </c>
     </row>
-    <row r="785" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="785" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A785" s="3" t="s">
         <v>672</v>
       </c>
@@ -24419,7 +24418,7 @@
         <v>12.4679225</v>
       </c>
     </row>
-    <row r="786" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="786" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A786" s="3" t="s">
         <v>1146</v>
       </c>
@@ -24445,7 +24444,7 @@
         <v>12.417792800000001</v>
       </c>
     </row>
-    <row r="787" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="787" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A787" s="3" t="s">
         <v>762</v>
       </c>
@@ -24471,7 +24470,7 @@
         <v>12.4285136</v>
       </c>
     </row>
-    <row r="788" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="788" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A788" s="3" t="s">
         <v>1147</v>
       </c>
@@ -24491,13 +24490,13 @@
         <v>11</v>
       </c>
       <c r="G788">
-        <v>41.859758599999999</v>
+        <v>41.862290000000002</v>
       </c>
       <c r="H788">
-        <v>12.419367100000001</v>
-      </c>
-    </row>
-    <row r="789" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+        <v>12.420669999999999</v>
+      </c>
+    </row>
+    <row r="789" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A789" s="3" t="s">
         <v>1099</v>
       </c>
@@ -24517,13 +24516,13 @@
         <v>11</v>
       </c>
       <c r="G789">
-        <v>41.859758599999999</v>
+        <v>41.852729400000001</v>
       </c>
       <c r="H789">
-        <v>12.419367100000001</v>
-      </c>
-    </row>
-    <row r="790" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+        <v>12.4215442</v>
+      </c>
+    </row>
+    <row r="790" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A790" s="3" t="s">
         <v>1099</v>
       </c>
@@ -24543,13 +24542,13 @@
         <v>11</v>
       </c>
       <c r="G790">
-        <v>41.859758599999999</v>
+        <v>41.852729400000001</v>
       </c>
       <c r="H790">
-        <v>12.419367100000001</v>
-      </c>
-    </row>
-    <row r="791" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+        <v>12.4215442</v>
+      </c>
+    </row>
+    <row r="791" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A791" s="3" t="s">
         <v>1148</v>
       </c>
@@ -24575,7 +24574,7 @@
         <v>12.4615081</v>
       </c>
     </row>
-    <row r="792" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="792" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A792" s="3" t="s">
         <v>1149</v>
       </c>
@@ -24601,7 +24600,7 @@
         <v>12.459636400000001</v>
       </c>
     </row>
-    <row r="793" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="793" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A793" s="3" t="s">
         <v>768</v>
       </c>
@@ -24627,7 +24626,7 @@
         <v>12.453670799999999</v>
       </c>
     </row>
-    <row r="794" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="794" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A794" s="3" t="s">
         <v>898</v>
       </c>
@@ -24653,7 +24652,7 @@
         <v>12.458497100000001</v>
       </c>
     </row>
-    <row r="795" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="795" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A795" s="3" t="s">
         <v>1021</v>
       </c>
@@ -24679,7 +24678,7 @@
         <v>12.458343599999999</v>
       </c>
     </row>
-    <row r="796" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="796" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A796" s="3" t="s">
         <v>1103</v>
       </c>
@@ -24705,7 +24704,7 @@
         <v>12.4544304</v>
       </c>
     </row>
-    <row r="797" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="797" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A797" s="3" t="s">
         <v>1022</v>
       </c>
@@ -24731,7 +24730,7 @@
         <v>12.4471019</v>
       </c>
     </row>
-    <row r="798" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="798" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A798" s="3" t="s">
         <v>1022</v>
       </c>
@@ -24757,7 +24756,7 @@
         <v>12.4471019</v>
       </c>
     </row>
-    <row r="799" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="799" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A799" s="3" t="s">
         <v>700</v>
       </c>
@@ -24783,7 +24782,7 @@
         <v>12.4653882</v>
       </c>
     </row>
-    <row r="800" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="800" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A800" s="3" t="s">
         <v>1150</v>
       </c>
@@ -24809,7 +24808,7 @@
         <v>12.451320600000001</v>
       </c>
     </row>
-    <row r="801" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="801" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A801" s="3" t="s">
         <v>1105</v>
       </c>
@@ -24835,7 +24834,7 @@
         <v>12.4476464</v>
       </c>
     </row>
-    <row r="802" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="802" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A802" s="3" t="s">
         <v>1151</v>
       </c>
@@ -24861,7 +24860,7 @@
         <v>12.4653882</v>
       </c>
     </row>
-    <row r="803" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="803" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A803" s="3" t="s">
         <v>907</v>
       </c>
@@ -24887,7 +24886,7 @@
         <v>12.4676934</v>
       </c>
     </row>
-    <row r="804" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="804" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A804" s="3" t="s">
         <v>744</v>
       </c>
@@ -24913,7 +24912,7 @@
         <v>12.450601900000001</v>
       </c>
     </row>
-    <row r="805" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="805" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A805" s="3" t="s">
         <v>1030</v>
       </c>
@@ -24939,7 +24938,7 @@
         <v>12.462877300000001</v>
       </c>
     </row>
-    <row r="806" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="806" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A806" s="3" t="s">
         <v>1030</v>
       </c>
@@ -24965,7 +24964,7 @@
         <v>12.462877300000001</v>
       </c>
     </row>
-    <row r="807" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="807" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A807" s="3" t="s">
         <v>1152</v>
       </c>
@@ -24991,7 +24990,7 @@
         <v>12.4653882</v>
       </c>
     </row>
-    <row r="808" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="808" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A808" s="3" t="s">
         <v>1029</v>
       </c>
@@ -25017,7 +25016,7 @@
         <v>12.4476464</v>
       </c>
     </row>
-    <row r="809" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="809" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A809" s="3" t="s">
         <v>911</v>
       </c>
@@ -25043,7 +25042,7 @@
         <v>12.4485481</v>
       </c>
     </row>
-    <row r="810" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="810" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A810" s="3" t="s">
         <v>911</v>
       </c>
@@ -25069,7 +25068,7 @@
         <v>12.4485481</v>
       </c>
     </row>
-    <row r="811" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="811" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A811" s="3" t="s">
         <v>912</v>
       </c>
@@ -25095,7 +25094,7 @@
         <v>12.450601900000001</v>
       </c>
     </row>
-    <row r="812" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="812" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A812" s="3" t="s">
         <v>912</v>
       </c>
@@ -25121,7 +25120,7 @@
         <v>12.450601900000001</v>
       </c>
     </row>
-    <row r="813" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="813" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A813" s="3" t="s">
         <v>787</v>
       </c>
@@ -25147,7 +25146,7 @@
         <v>12.4638267</v>
       </c>
     </row>
-    <row r="814" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="814" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A814" s="3" t="s">
         <v>854</v>
       </c>
@@ -25173,7 +25172,7 @@
         <v>12.394792799999999</v>
       </c>
     </row>
-    <row r="815" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="815" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A815" s="3" t="s">
         <v>915</v>
       </c>
@@ -25199,7 +25198,7 @@
         <v>12.4611266</v>
       </c>
     </row>
-    <row r="816" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="816" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A816" s="3" t="s">
         <v>1117</v>
       </c>
@@ -25225,7 +25224,7 @@
         <v>12.394792799999999</v>
       </c>
     </row>
-    <row r="817" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="817" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A817" s="3" t="s">
         <v>1153</v>
       </c>
@@ -25251,7 +25250,7 @@
         <v>12.4457421</v>
       </c>
     </row>
-    <row r="818" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="818" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A818" s="3" t="s">
         <v>1154</v>
       </c>
@@ -25277,7 +25276,7 @@
         <v>12.4653882</v>
       </c>
     </row>
-    <row r="819" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="819" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A819" s="3" t="s">
         <v>858</v>
       </c>
@@ -25303,7 +25302,7 @@
         <v>12.4457421</v>
       </c>
     </row>
-    <row r="820" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="820" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A820" s="3" t="s">
         <v>802</v>
       </c>
@@ -25329,7 +25328,7 @@
         <v>12.4653882</v>
       </c>
     </row>
-    <row r="821" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="821" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A821" s="3" t="s">
         <v>976</v>
       </c>
@@ -25355,7 +25354,7 @@
         <v>12.4319752</v>
       </c>
     </row>
-    <row r="822" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="822" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A822" s="3" t="s">
         <v>1120</v>
       </c>
@@ -25381,7 +25380,7 @@
         <v>12.4262792</v>
       </c>
     </row>
-    <row r="823" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="823" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A823" s="3" t="s">
         <v>981</v>
       </c>
@@ -25407,7 +25406,7 @@
         <v>12.4262792</v>
       </c>
     </row>
-    <row r="824" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="824" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A824" s="3" t="s">
         <v>794</v>
       </c>
@@ -25433,7 +25432,7 @@
         <v>12.4460753</v>
       </c>
     </row>
-    <row r="825" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="825" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A825" s="3" t="s">
         <v>1155</v>
       </c>
@@ -25459,7 +25458,7 @@
         <v>12.436747499999999</v>
       </c>
     </row>
-    <row r="826" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="826" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A826" s="3" t="s">
         <v>1156</v>
       </c>
@@ -25485,7 +25484,7 @@
         <v>12.4276889</v>
       </c>
     </row>
-    <row r="827" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="827" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A827" s="3" t="s">
         <v>863</v>
       </c>
@@ -25511,7 +25510,7 @@
         <v>12.436747499999999</v>
       </c>
     </row>
-    <row r="828" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="828" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A828" s="3" t="s">
         <v>1080</v>
       </c>
@@ -25537,7 +25536,7 @@
         <v>12.441648199999999</v>
       </c>
     </row>
-    <row r="829" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="829" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A829" s="3" t="s">
         <v>866</v>
       </c>
@@ -25563,7 +25562,7 @@
         <v>12.441648199999999</v>
       </c>
     </row>
-    <row r="830" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="830" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A830" s="3" t="s">
         <v>932</v>
       </c>
@@ -25589,7 +25588,7 @@
         <v>12.4284626</v>
       </c>
     </row>
-    <row r="831" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="831" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A831" s="3" t="s">
         <v>727</v>
       </c>
@@ -25615,7 +25614,7 @@
         <v>12.421317</v>
       </c>
     </row>
-    <row r="832" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="832" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A832" s="3" t="s">
         <v>932</v>
       </c>
@@ -25641,7 +25640,7 @@
         <v>12.4284626</v>
       </c>
     </row>
-    <row r="833" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="833" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A833" s="3" t="s">
         <v>869</v>
       </c>
@@ -25667,7 +25666,7 @@
         <v>12.4319752</v>
       </c>
     </row>
-    <row r="834" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="834" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A834" s="3" t="s">
         <v>669</v>
       </c>
@@ -25693,7 +25692,7 @@
         <v>12.436747499999999</v>
       </c>
     </row>
-    <row r="835" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="835" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A835" s="3" t="s">
         <v>1085</v>
       </c>
@@ -25719,7 +25718,7 @@
         <v>12.4281592</v>
       </c>
     </row>
-    <row r="836" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="836" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A836" s="3" t="s">
         <v>1147</v>
       </c>
@@ -25739,13 +25738,13 @@
         <v>11</v>
       </c>
       <c r="G836">
-        <v>41.859758599999999</v>
+        <v>41.862290000000002</v>
       </c>
       <c r="H836">
-        <v>12.419367100000001</v>
-      </c>
-    </row>
-    <row r="837" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+        <v>12.420669999999999</v>
+      </c>
+    </row>
+    <row r="837" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A837" s="3" t="s">
         <v>1157</v>
       </c>
@@ -25771,7 +25770,7 @@
         <v>12.4653882</v>
       </c>
     </row>
-    <row r="838" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="838" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A838" s="3" t="s">
         <v>1098</v>
       </c>
@@ -25797,7 +25796,7 @@
         <v>12.434444600000001</v>
       </c>
     </row>
-    <row r="839" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="839" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A839" s="3" t="s">
         <v>934</v>
       </c>
@@ -25817,13 +25816,13 @@
         <v>11</v>
       </c>
       <c r="G839">
-        <v>41.859758599999999</v>
+        <v>41.8521353</v>
       </c>
       <c r="H839">
-        <v>12.419367100000001</v>
-      </c>
-    </row>
-    <row r="840" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+        <v>12.422168299999999</v>
+      </c>
+    </row>
+    <row r="840" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A840" s="3" t="s">
         <v>1129</v>
       </c>
@@ -25849,7 +25848,7 @@
         <v>12.4143522</v>
       </c>
     </row>
-    <row r="841" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="841" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A841" s="3" t="s">
         <v>1129</v>
       </c>
@@ -25875,7 +25874,7 @@
         <v>12.4143522</v>
       </c>
     </row>
-    <row r="842" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="842" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A842" s="3" t="s">
         <v>735</v>
       </c>
@@ -25901,7 +25900,7 @@
         <v>12.4131214</v>
       </c>
     </row>
-    <row r="843" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="843" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A843" s="3" t="s">
         <v>872</v>
       </c>
@@ -25927,7 +25926,7 @@
         <v>12.4131214</v>
       </c>
     </row>
-    <row r="844" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="844" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A844" s="3" t="s">
         <v>1131</v>
       </c>
@@ -25953,7 +25952,7 @@
         <v>12.4653882</v>
       </c>
     </row>
-    <row r="845" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="845" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A845" s="3" t="s">
         <v>993</v>
       </c>
@@ -25979,7 +25978,7 @@
         <v>12.4131214</v>
       </c>
     </row>
-    <row r="846" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="846" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A846" s="3" t="s">
         <v>1158</v>
       </c>
@@ -26005,7 +26004,7 @@
         <v>12.4131214</v>
       </c>
     </row>
-    <row r="847" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="847" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A847" s="3" t="s">
         <v>1158</v>
       </c>
@@ -26031,7 +26030,7 @@
         <v>12.4131214</v>
       </c>
     </row>
-    <row r="848" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="848" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A848" s="3" t="s">
         <v>1159</v>
       </c>
@@ -26057,7 +26056,7 @@
         <v>12.4653882</v>
       </c>
     </row>
-    <row r="849" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="849" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A849" s="3" t="s">
         <v>1160</v>
       </c>
@@ -26083,7 +26082,7 @@
         <v>12.394792799999999</v>
       </c>
     </row>
-    <row r="850" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="850" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A850" s="3" t="s">
         <v>1161</v>
       </c>
@@ -26109,7 +26108,7 @@
         <v>12.381682899999999</v>
       </c>
     </row>
-    <row r="851" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="851" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A851" s="3" t="s">
         <v>1161</v>
       </c>
@@ -26135,7 +26134,7 @@
         <v>12.381682899999999</v>
       </c>
     </row>
-    <row r="852" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="852" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A852" s="3" t="s">
         <v>879</v>
       </c>
@@ -26161,7 +26160,7 @@
         <v>12.3935312</v>
       </c>
     </row>
-    <row r="853" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="853" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A853" s="3" t="s">
         <v>879</v>
       </c>
@@ -26187,7 +26186,7 @@
         <v>12.3935312</v>
       </c>
     </row>
-    <row r="854" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="854" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A854" s="3" t="s">
         <v>1079</v>
       </c>
@@ -26213,7 +26212,7 @@
         <v>12.433839799999999</v>
       </c>
     </row>
-    <row r="855" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="855" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A855" s="3" t="s">
         <v>735</v>
       </c>
@@ -26239,7 +26238,7 @@
         <v>12.4131214</v>
       </c>
     </row>
-    <row r="856" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="856" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A856" s="3" t="s">
         <v>901</v>
       </c>
@@ -26265,7 +26264,7 @@
         <v>12.451320600000001</v>
       </c>
     </row>
-    <row r="857" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="857" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A857" s="3" t="s">
         <v>1162</v>
       </c>
@@ -26291,7 +26290,7 @@
         <v>12.4653882</v>
       </c>
     </row>
-    <row r="858" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="858" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A858" s="3" t="s">
         <v>938</v>
       </c>
@@ -26317,7 +26316,7 @@
         <v>12.395972799999999</v>
       </c>
     </row>
-    <row r="859" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="859" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A859" s="3" t="s">
         <v>1163</v>
       </c>
@@ -26343,7 +26342,7 @@
         <v>12.414474800000001</v>
       </c>
     </row>
-    <row r="860" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="860" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A860" s="3" t="s">
         <v>882</v>
       </c>
@@ -26369,7 +26368,7 @@
         <v>12.4655162</v>
       </c>
     </row>
-    <row r="861" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="861" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A861" s="3" t="s">
         <v>998</v>
       </c>
@@ -26395,7 +26394,7 @@
         <v>12.394792799999999</v>
       </c>
     </row>
-    <row r="862" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="862" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A862" s="3" t="s">
         <v>741</v>
       </c>
@@ -26421,7 +26420,7 @@
         <v>12.4634237</v>
       </c>
     </row>
-    <row r="863" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="863" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A863" s="3" t="s">
         <v>1162</v>
       </c>
@@ -26447,7 +26446,7 @@
         <v>12.4653882</v>
       </c>
     </row>
-    <row r="864" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="864" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A864" s="3" t="s">
         <v>1162</v>
       </c>
@@ -26473,7 +26472,7 @@
         <v>12.4653882</v>
       </c>
     </row>
-    <row r="865" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="865" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A865" s="3" t="s">
         <v>1164</v>
       </c>
@@ -26499,7 +26498,7 @@
         <v>12.450822499999999</v>
       </c>
     </row>
-    <row r="866" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="866" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A866" s="3" t="s">
         <v>1046</v>
       </c>
@@ -26525,7 +26524,7 @@
         <v>12.470989599999999</v>
       </c>
     </row>
-    <row r="867" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="867" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A867" s="3" t="s">
         <v>676</v>
       </c>
@@ -26551,7 +26550,7 @@
         <v>12.4715598</v>
       </c>
     </row>
-    <row r="868" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="868" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A868" s="3" t="s">
         <v>808</v>
       </c>
@@ -26577,7 +26576,7 @@
         <v>12.471681</v>
       </c>
     </row>
-    <row r="869" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="869" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A869" s="3" t="s">
         <v>1165</v>
       </c>
@@ -26603,7 +26602,7 @@
         <v>12.4679225</v>
       </c>
     </row>
-    <row r="870" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="870" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A870" s="3" t="s">
         <v>1166</v>
       </c>
@@ -26629,7 +26628,7 @@
         <v>12.4750234</v>
       </c>
     </row>
-    <row r="871" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="871" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A871" s="3" t="s">
         <v>1052</v>
       </c>
@@ -26655,7 +26654,7 @@
         <v>12.4708924</v>
       </c>
     </row>
-    <row r="872" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="872" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A872" s="3" t="s">
         <v>1167</v>
       </c>
@@ -26681,7 +26680,7 @@
         <v>12.465842200000001</v>
       </c>
     </row>
-    <row r="873" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="873" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A873" s="3" t="s">
         <v>677</v>
       </c>
@@ -26707,7 +26706,7 @@
         <v>12.4665342</v>
       </c>
     </row>
-    <row r="874" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="874" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A874" s="3" t="s">
         <v>824</v>
       </c>
@@ -26733,7 +26732,7 @@
         <v>12.472185700000001</v>
       </c>
     </row>
-    <row r="875" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="875" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A875" s="3" t="s">
         <v>753</v>
       </c>
@@ -26863,7 +26862,7 @@
         <v>12.468824400000001</v>
       </c>
     </row>
-    <row r="880" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="880" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A880" s="3" t="s">
         <v>1171</v>
       </c>
@@ -26889,7 +26888,7 @@
         <v>12.464426700000001</v>
       </c>
     </row>
-    <row r="881" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="881" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A881" s="3" t="s">
         <v>1172</v>
       </c>
@@ -26915,7 +26914,7 @@
         <v>12.464426700000001</v>
       </c>
     </row>
-    <row r="882" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="882" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A882" s="3" t="s">
         <v>1173</v>
       </c>
@@ -26941,7 +26940,7 @@
         <v>12.463844</v>
       </c>
     </row>
-    <row r="883" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="883" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A883" s="3" t="s">
         <v>1174</v>
       </c>
@@ -26967,7 +26966,7 @@
         <v>12.465842200000001</v>
       </c>
     </row>
-    <row r="884" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="884" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A884" s="3" t="s">
         <v>1175</v>
       </c>
@@ -26993,7 +26992,7 @@
         <v>12.417792800000001</v>
       </c>
     </row>
-    <row r="885" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="885" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A885" s="3" t="s">
         <v>953</v>
       </c>
@@ -27019,7 +27018,7 @@
         <v>12.422466399999999</v>
       </c>
     </row>
-    <row r="886" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="886" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A886" s="3" t="s">
         <v>1176</v>
       </c>
@@ -27045,7 +27044,7 @@
         <v>12.417929900000001</v>
       </c>
     </row>
-    <row r="887" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="887" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A887" s="3" t="s">
         <v>765</v>
       </c>
@@ -27071,7 +27070,7 @@
         <v>12.452554900000001</v>
       </c>
     </row>
-    <row r="888" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="888" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A888" s="3" t="s">
         <v>767</v>
       </c>
@@ -27097,7 +27096,7 @@
         <v>12.4548323</v>
       </c>
     </row>
-    <row r="889" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="889" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A889" s="3" t="s">
         <v>1177</v>
       </c>
@@ -27123,7 +27122,7 @@
         <v>12.4485481</v>
       </c>
     </row>
-    <row r="890" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="890" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A890" s="3" t="s">
         <v>839</v>
       </c>
@@ -27149,7 +27148,7 @@
         <v>12.460785599999999</v>
       </c>
     </row>
-    <row r="891" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="891" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A891" s="3" t="s">
         <v>1178</v>
       </c>
@@ -27175,7 +27174,7 @@
         <v>12.4591963</v>
       </c>
     </row>
-    <row r="892" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="892" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A892" s="3" t="s">
         <v>1100</v>
       </c>
@@ -27201,7 +27200,7 @@
         <v>12.452554900000001</v>
       </c>
     </row>
-    <row r="893" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="893" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A893" s="3" t="s">
         <v>1179</v>
       </c>
@@ -27227,7 +27226,7 @@
         <v>12.4485481</v>
       </c>
     </row>
-    <row r="894" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="894" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A894" s="3" t="s">
         <v>957</v>
       </c>
@@ -27253,7 +27252,7 @@
         <v>12.457281200000001</v>
       </c>
     </row>
-    <row r="895" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="895" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A895" s="3" t="s">
         <v>1180</v>
       </c>
@@ -27279,7 +27278,7 @@
         <v>12.453670799999999</v>
       </c>
     </row>
-    <row r="896" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="896" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A896" s="3" t="s">
         <v>842</v>
       </c>
@@ -27305,7 +27304,7 @@
         <v>12.458343599999999</v>
       </c>
     </row>
-    <row r="897" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="897" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A897" s="3" t="s">
         <v>1181</v>
       </c>
@@ -27331,7 +27330,7 @@
         <v>12.4532439</v>
       </c>
     </row>
-    <row r="898" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="898" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A898" s="3" t="s">
         <v>1065</v>
       </c>
@@ -27357,7 +27356,7 @@
         <v>12.4538505</v>
       </c>
     </row>
-    <row r="899" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="899" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A899" s="3" t="s">
         <v>1103</v>
       </c>
@@ -27383,7 +27382,7 @@
         <v>12.4544304</v>
       </c>
     </row>
-    <row r="900" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="900" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A900" s="3" t="s">
         <v>963</v>
       </c>
@@ -27409,7 +27408,7 @@
         <v>12.451320600000001</v>
       </c>
     </row>
-    <row r="901" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="901" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A901" s="3" t="s">
         <v>909</v>
       </c>
@@ -27435,7 +27434,7 @@
         <v>12.450667899999999</v>
       </c>
     </row>
-    <row r="902" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="902" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A902" s="3" t="s">
         <v>905</v>
       </c>
@@ -27461,7 +27460,7 @@
         <v>12.452030199999999</v>
       </c>
     </row>
-    <row r="903" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="903" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A903" s="3" t="s">
         <v>1086</v>
       </c>
@@ -27487,7 +27486,7 @@
         <v>12.449409299999999</v>
       </c>
     </row>
-    <row r="904" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="904" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A904" s="3" t="s">
         <v>703</v>
       </c>
@@ -27513,7 +27512,7 @@
         <v>12.4676934</v>
       </c>
     </row>
-    <row r="905" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="905" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A905" s="3" t="s">
         <v>1030</v>
       </c>
@@ -27539,7 +27538,7 @@
         <v>12.462877300000001</v>
       </c>
     </row>
-    <row r="906" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="906" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A906" s="3" t="s">
         <v>1030</v>
       </c>
@@ -27565,7 +27564,7 @@
         <v>12.462877300000001</v>
       </c>
     </row>
-    <row r="907" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="907" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A907" s="3" t="s">
         <v>1029</v>
       </c>
@@ -27591,7 +27590,7 @@
         <v>12.4476464</v>
       </c>
     </row>
-    <row r="908" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="908" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A908" s="3" t="s">
         <v>708</v>
       </c>
@@ -27617,7 +27616,7 @@
         <v>12.452703</v>
       </c>
     </row>
-    <row r="909" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="909" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A909" s="3" t="s">
         <v>786</v>
       </c>
@@ -27643,7 +27642,7 @@
         <v>12.4638267</v>
       </c>
     </row>
-    <row r="910" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="910" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A910" s="3" t="s">
         <v>787</v>
       </c>
@@ -27669,7 +27668,7 @@
         <v>12.4638267</v>
       </c>
     </row>
-    <row r="911" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="911" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A911" s="3" t="s">
         <v>738</v>
       </c>
@@ -27695,7 +27694,7 @@
         <v>12.4611266</v>
       </c>
     </row>
-    <row r="912" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="912" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A912" s="3" t="s">
         <v>712</v>
       </c>
@@ -27721,7 +27720,7 @@
         <v>12.4611974</v>
       </c>
     </row>
-    <row r="913" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="913" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A913" s="3" t="s">
         <v>712</v>
       </c>
@@ -27747,7 +27746,7 @@
         <v>12.4611974</v>
       </c>
     </row>
-    <row r="914" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="914" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A914" s="3" t="s">
         <v>915</v>
       </c>
@@ -27773,7 +27772,7 @@
         <v>12.4611266</v>
       </c>
     </row>
-    <row r="915" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="915" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A915" s="3" t="s">
         <v>789</v>
       </c>
@@ -27799,7 +27798,7 @@
         <v>12.394792799999999</v>
       </c>
     </row>
-    <row r="916" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="916" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A916" s="3" t="s">
         <v>883</v>
       </c>
@@ -27825,7 +27824,7 @@
         <v>12.4611266</v>
       </c>
     </row>
-    <row r="917" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="917" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A917" s="3" t="s">
         <v>974</v>
       </c>
@@ -27851,7 +27850,7 @@
         <v>12.394792799999999</v>
       </c>
     </row>
-    <row r="918" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="918" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A918" s="3" t="s">
         <v>975</v>
       </c>
@@ -27877,7 +27876,7 @@
         <v>12.394792799999999</v>
       </c>
     </row>
-    <row r="919" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="919" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A919" s="3" t="s">
         <v>1031</v>
       </c>
@@ -27903,7 +27902,7 @@
         <v>12.456374800000001</v>
       </c>
     </row>
-    <row r="920" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="920" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A920" s="3" t="s">
         <v>722</v>
       </c>
@@ -27929,7 +27928,7 @@
         <v>12.420400600000001</v>
       </c>
     </row>
-    <row r="921" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="921" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A921" s="3" t="s">
         <v>718</v>
       </c>
@@ -27955,7 +27954,7 @@
         <v>12.441648199999999</v>
       </c>
     </row>
-    <row r="922" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="922" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A922" s="3" t="s">
         <v>716</v>
       </c>
@@ -27981,7 +27980,7 @@
         <v>12.421317</v>
       </c>
     </row>
-    <row r="923" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="923" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A923" s="3" t="s">
         <v>1182</v>
       </c>
@@ -28007,7 +28006,7 @@
         <v>12.4262792</v>
       </c>
     </row>
-    <row r="924" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="924" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A924" s="3" t="s">
         <v>1183</v>
       </c>
@@ -28033,7 +28032,7 @@
         <v>12.436747499999999</v>
       </c>
     </row>
-    <row r="925" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="925" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A925" s="3" t="s">
         <v>1034</v>
       </c>
@@ -28059,7 +28058,7 @@
         <v>12.436747499999999</v>
       </c>
     </row>
-    <row r="926" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="926" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A926" s="3" t="s">
         <v>721</v>
       </c>
@@ -28085,7 +28084,7 @@
         <v>12.4382193</v>
       </c>
     </row>
-    <row r="927" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="927" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A927" s="3" t="s">
         <v>864</v>
       </c>
@@ -28111,7 +28110,7 @@
         <v>12.433839799999999</v>
       </c>
     </row>
-    <row r="928" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="928" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A928" s="3" t="s">
         <v>1035</v>
       </c>
@@ -28137,7 +28136,7 @@
         <v>12.436747499999999</v>
       </c>
     </row>
-    <row r="929" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="929" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A929" s="3" t="s">
         <v>867</v>
       </c>
@@ -28163,7 +28162,7 @@
         <v>12.4382193</v>
       </c>
     </row>
-    <row r="930" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="930" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A930" s="3" t="s">
         <v>851</v>
       </c>
@@ -28189,7 +28188,7 @@
         <v>12.436747499999999</v>
       </c>
     </row>
-    <row r="931" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="931" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A931" s="3" t="s">
         <v>1124</v>
       </c>
@@ -28215,7 +28214,7 @@
         <v>12.436747499999999</v>
       </c>
     </row>
-    <row r="932" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="932" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A932" s="3" t="s">
         <v>801</v>
       </c>
@@ -28241,7 +28240,7 @@
         <v>12.436747499999999</v>
       </c>
     </row>
-    <row r="933" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="933" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A933" s="3" t="s">
         <v>985</v>
       </c>
@@ -28267,7 +28266,7 @@
         <v>12.4382193</v>
       </c>
     </row>
-    <row r="934" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="934" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A934" s="3" t="s">
         <v>1033</v>
       </c>
@@ -28293,7 +28292,7 @@
         <v>12.4281592</v>
       </c>
     </row>
-    <row r="935" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="935" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A935" s="3" t="s">
         <v>1125</v>
       </c>
@@ -28319,7 +28318,7 @@
         <v>12.4281592</v>
       </c>
     </row>
-    <row r="936" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="936" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A936" s="3" t="s">
         <v>832</v>
       </c>
@@ -28339,13 +28338,13 @@
         <v>11</v>
       </c>
       <c r="G936">
-        <v>41.859758599999999</v>
+        <v>41.8586685</v>
       </c>
       <c r="H936">
-        <v>12.419367100000001</v>
-      </c>
-    </row>
-    <row r="937" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+        <v>12.419408499999999</v>
+      </c>
+    </row>
+    <row r="937" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A937" s="3" t="s">
         <v>832</v>
       </c>
@@ -28365,13 +28364,13 @@
         <v>11</v>
       </c>
       <c r="G937">
-        <v>41.859758599999999</v>
+        <v>41.8586685</v>
       </c>
       <c r="H937">
-        <v>12.419367100000001</v>
-      </c>
-    </row>
-    <row r="938" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+        <v>12.419408499999999</v>
+      </c>
+    </row>
+    <row r="938" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A938" s="3" t="s">
         <v>953</v>
       </c>
@@ -28397,7 +28396,7 @@
         <v>12.422466399999999</v>
       </c>
     </row>
-    <row r="939" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="939" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A939" s="3" t="s">
         <v>805</v>
       </c>
@@ -28417,13 +28416,13 @@
         <v>11</v>
       </c>
       <c r="G939">
-        <v>41.859758599999999</v>
+        <v>41.853423573254581</v>
       </c>
       <c r="H939">
-        <v>12.419367100000001</v>
-      </c>
-    </row>
-    <row r="940" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+        <v>12.42088138420722</v>
+      </c>
+    </row>
+    <row r="940" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A940" s="3" t="s">
         <v>805</v>
       </c>
@@ -28443,13 +28442,13 @@
         <v>11</v>
       </c>
       <c r="G940">
-        <v>41.859758599999999</v>
+        <v>41.853423573254581</v>
       </c>
       <c r="H940">
-        <v>12.419367100000001</v>
-      </c>
-    </row>
-    <row r="941" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+        <v>12.42088138420722</v>
+      </c>
+    </row>
+    <row r="941" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A941" s="3" t="s">
         <v>1184</v>
       </c>
@@ -28475,7 +28474,7 @@
         <v>12.4285136</v>
       </c>
     </row>
-    <row r="942" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="942" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A942" s="3" t="s">
         <v>1184</v>
       </c>
@@ -28501,7 +28500,7 @@
         <v>12.4285136</v>
       </c>
     </row>
-    <row r="943" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="943" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A943" s="3" t="s">
         <v>992</v>
       </c>
@@ -28527,7 +28526,7 @@
         <v>12.4653882</v>
       </c>
     </row>
-    <row r="944" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="944" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A944" s="3" t="s">
         <v>990</v>
       </c>
@@ -28553,7 +28552,7 @@
         <v>12.4131214</v>
       </c>
     </row>
-    <row r="945" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="945" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A945" s="3" t="s">
         <v>993</v>
       </c>
@@ -28579,7 +28578,7 @@
         <v>12.4131214</v>
       </c>
     </row>
-    <row r="946" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="946" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A946" s="3" t="s">
         <v>875</v>
       </c>
@@ -28605,7 +28604,7 @@
         <v>12.414733699999999</v>
       </c>
     </row>
-    <row r="947" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="947" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A947" s="3" t="s">
         <v>875</v>
       </c>
@@ -28631,7 +28630,7 @@
         <v>12.414733699999999</v>
       </c>
     </row>
-    <row r="948" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="948" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A948" s="3" t="s">
         <v>1185</v>
       </c>
@@ -28657,7 +28656,7 @@
         <v>12.414733699999999</v>
       </c>
     </row>
-    <row r="949" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="949" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A949" s="3" t="s">
         <v>1185</v>
       </c>
@@ -28683,7 +28682,7 @@
         <v>12.414733699999999</v>
       </c>
     </row>
-    <row r="950" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="950" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A950" s="3" t="s">
         <v>1186</v>
       </c>
@@ -28709,7 +28708,7 @@
         <v>12.394792799999999</v>
       </c>
     </row>
-    <row r="951" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="951" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A951" s="3" t="s">
         <v>1187</v>
       </c>
@@ -28735,7 +28734,7 @@
         <v>12.4290529</v>
       </c>
     </row>
-    <row r="952" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="952" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A952" s="3" t="s">
         <v>1024</v>
       </c>
@@ -28761,7 +28760,7 @@
         <v>12.449409299999999</v>
       </c>
     </row>
-    <row r="953" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="953" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A953" s="3" t="s">
         <v>1133</v>
       </c>
@@ -28813,7 +28812,7 @@
         <v>12.4694617</v>
       </c>
     </row>
-    <row r="955" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="955" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A955" s="3" t="s">
         <v>1189</v>
       </c>
@@ -28865,7 +28864,7 @@
         <v>12.4687558</v>
       </c>
     </row>
-    <row r="957" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="957" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A957" s="3" t="s">
         <v>1191</v>
       </c>
@@ -28891,7 +28890,7 @@
         <v>12.454582800000001</v>
       </c>
     </row>
-    <row r="958" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="958" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A958" s="3" t="s">
         <v>1192</v>
       </c>
@@ -28917,7 +28916,7 @@
         <v>12.451522369998999</v>
       </c>
     </row>
-    <row r="959" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="959" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A959" s="3" t="s">
         <v>1193</v>
       </c>
@@ -28943,7 +28942,7 @@
         <v>12.458429349998999</v>
       </c>
     </row>
-    <row r="960" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="960" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A960" s="3" t="s">
         <v>1194</v>
       </c>
@@ -28969,7 +28968,7 @@
         <v>12.41401291</v>
       </c>
     </row>
-    <row r="961" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="961" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A961" s="3" t="s">
         <v>1195</v>
       </c>
@@ -28996,13 +28995,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H961" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <filterColumn colId="2">
-      <filters>
-        <filter val="VIALE GUGLIELMO MARCONI"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:H961" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>